--- a/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能一覧_A1_プロジェクト管理システム.xlsx
+++ b/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能一覧_A1_プロジェクト管理システム.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AE9395-0877-473D-ABC9-F6D92E66B2DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1F709C-12B7-462B-8BC2-D4D06FCBC516}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2685" windowWidth="24000" windowHeight="10830" tabRatio="822" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="17" state="hidden" r:id="rId1"/>
@@ -34,72 +34,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="R7" authorId="0" shapeId="0" xr:uid="{A2269A44-293D-4D56-8B08-D3158C1C508D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「取引」は
-「subfunction」
-としてください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z7" authorId="0" shapeId="0" xr:uid="{259D9BCE-C8EA-446E-89EA-1278C76BE311}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「取引」は
-「subfunction」
-としてください。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
   <si>
@@ -357,7 +291,7 @@
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -489,21 +423,6 @@
       <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -946,6 +865,81 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1062,80 +1056,83 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1155,198 +1152,120 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2025,42 +1944,42 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="17" spans="6:11" ht="13.5" customHeight="1"/>
-    <row r="18" spans="6:11" ht="13.5" customHeight="1"/>
-    <row r="19" spans="6:11" ht="13.5" customHeight="1"/>
-    <row r="20" spans="6:11" ht="13.5" customHeight="1"/>
-    <row r="21" spans="6:11" ht="13.5" customHeight="1"/>
-    <row r="22" spans="6:11" ht="13.5" customHeight="1">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="14"/>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="6:11" ht="17.25" customHeight="1">
+    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
@@ -2068,12 +1987,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="6:11" ht="13.5" customHeight="1">
+    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
     </row>
-    <row r="25" spans="6:11" ht="18" customHeight="1">
+    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
@@ -2084,42 +2003,42 @@
       <c r="J25" s="81"/>
       <c r="K25" s="81"/>
     </row>
-    <row r="26" spans="6:11" ht="13.5" customHeight="1">
+    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
     </row>
-    <row r="27" spans="6:11" ht="13.5" customHeight="1">
+    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
     </row>
-    <row r="28" spans="6:11" ht="13.5" customHeight="1">
+    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="15"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
     </row>
-    <row r="29" spans="6:11" ht="15" customHeight="1">
+    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="14"/>
       <c r="H29" s="14"/>
     </row>
-    <row r="30" spans="6:11" ht="13.5" customHeight="1">
+    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="14"/>
       <c r="G30" s="16"/>
       <c r="H30" s="14"/>
     </row>
-    <row r="31" spans="6:11" ht="18.75" customHeight="1">
+    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="14"/>
       <c r="G31" s="16"/>
       <c r="H31" s="14"/>
     </row>
-    <row r="32" spans="6:11" ht="18.75">
+    <row r="32" spans="6:11" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="14"/>
       <c r="G32" s="16"/>
       <c r="H32" s="14"/>
       <c r="J32" s="29"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="14"/>
       <c r="H33" s="14"/>
       <c r="J33" s="17"/>
@@ -2129,7 +2048,7 @@
       <c r="O33" s="17"/>
       <c r="P33" s="17"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="14"/>
       <c r="H34" s="14"/>
       <c r="J34" s="29"/>
@@ -2142,515 +2061,515 @@
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="17"/>
       <c r="P35" s="17"/>
       <c r="Q35" s="25"/>
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="26"/>
       <c r="P36" s="25"/>
       <c r="Q36" s="26"/>
       <c r="R36" s="25"/>
       <c r="S36" s="26"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="27"/>
       <c r="P37" s="28"/>
       <c r="Q37" s="27"/>
       <c r="R37" s="28"/>
       <c r="S37" s="27"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="28"/>
       <c r="P38" s="28"/>
       <c r="Q38" s="28"/>
       <c r="R38" s="28"/>
       <c r="S38" s="28"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="28"/>
       <c r="P39" s="28"/>
       <c r="Q39" s="28"/>
       <c r="R39" s="28"/>
       <c r="S39" s="28"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
-    <row r="513" ht="13.5" customHeight="1"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -2673,168 +2592,168 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="92" t="s">
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="98" t="s">
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="107" t="s">
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="89" t="s">
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="133"/>
+      <c r="W1" s="133"/>
+      <c r="X1" s="133"/>
+      <c r="Y1" s="133"/>
+      <c r="Z1" s="134"/>
+      <c r="AA1" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="116" t="s">
+      <c r="AB1" s="116"/>
+      <c r="AC1" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="117"/>
-      <c r="AE1" s="117"/>
-      <c r="AF1" s="118"/>
-      <c r="AG1" s="82">
+      <c r="AD1" s="142"/>
+      <c r="AE1" s="142"/>
+      <c r="AF1" s="143"/>
+      <c r="AG1" s="107">
         <v>43404</v>
       </c>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="84"/>
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="109"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="2"/>
     </row>
-    <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="89" t="s">
+    <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="111"/>
-      <c r="W2" s="111"/>
-      <c r="X2" s="111"/>
-      <c r="Y2" s="111"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="89" t="s">
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="136"/>
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="136"/>
+      <c r="Y2" s="136"/>
+      <c r="Z2" s="137"/>
+      <c r="AA2" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="91"/>
-      <c r="AC2" s="95" t="str">
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="120" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="96"/>
-      <c r="AE2" s="96"/>
-      <c r="AF2" s="97"/>
-      <c r="AG2" s="82" t="str">
+      <c r="AD2" s="121"/>
+      <c r="AE2" s="121"/>
+      <c r="AF2" s="122"/>
+      <c r="AG2" s="107" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="83"/>
-      <c r="AI2" s="84"/>
+      <c r="AH2" s="108"/>
+      <c r="AI2" s="109"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
     </row>
-    <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="89" t="s">
+    <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="92" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="106"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="114"/>
-      <c r="W3" s="114"/>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="114"/>
-      <c r="Z3" s="115"/>
-      <c r="AA3" s="119"/>
-      <c r="AB3" s="120"/>
-      <c r="AC3" s="121"/>
-      <c r="AD3" s="117"/>
-      <c r="AE3" s="117"/>
-      <c r="AF3" s="118"/>
-      <c r="AG3" s="82"/>
-      <c r="AH3" s="83"/>
-      <c r="AI3" s="84"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="130"/>
+      <c r="R3" s="131"/>
+      <c r="S3" s="138"/>
+      <c r="T3" s="139"/>
+      <c r="U3" s="139"/>
+      <c r="V3" s="139"/>
+      <c r="W3" s="139"/>
+      <c r="X3" s="139"/>
+      <c r="Y3" s="139"/>
+      <c r="Z3" s="140"/>
+      <c r="AA3" s="144"/>
+      <c r="AB3" s="145"/>
+      <c r="AC3" s="146"/>
+      <c r="AD3" s="142"/>
+      <c r="AE3" s="142"/>
+      <c r="AF3" s="143"/>
+      <c r="AG3" s="107"/>
+      <c r="AH3" s="108"/>
+      <c r="AI3" s="109"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
     </row>
-    <row r="5" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1">
+    <row r="5" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N5" s="5" t="s">
         <v>24</v>
       </c>
@@ -2848,7 +2767,7 @@
       <c r="AH5" s="19"/>
       <c r="AI5" s="19"/>
     </row>
-    <row r="6" spans="1:40" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:40" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N6" s="5"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="19"/>
@@ -2860,1194 +2779,1038 @@
       <c r="AH6" s="19"/>
       <c r="AI6" s="19"/>
     </row>
-    <row r="7" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="85" t="s">
+      <c r="C7" s="111"/>
+      <c r="D7" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="87"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="85" t="s">
+      <c r="E7" s="112"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="88" t="s">
+      <c r="H7" s="112"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="85" t="s">
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="87"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="87"/>
-      <c r="U7" s="87"/>
-      <c r="V7" s="87"/>
-      <c r="W7" s="87"/>
-      <c r="X7" s="87"/>
-      <c r="Y7" s="87"/>
-      <c r="Z7" s="87"/>
-      <c r="AA7" s="87"/>
-      <c r="AB7" s="87"/>
-      <c r="AC7" s="87"/>
-      <c r="AD7" s="87"/>
-      <c r="AE7" s="86"/>
-      <c r="AF7" s="85" t="s">
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="112"/>
+      <c r="U7" s="112"/>
+      <c r="V7" s="112"/>
+      <c r="W7" s="112"/>
+      <c r="X7" s="112"/>
+      <c r="Y7" s="112"/>
+      <c r="Z7" s="112"/>
+      <c r="AA7" s="112"/>
+      <c r="AB7" s="112"/>
+      <c r="AC7" s="112"/>
+      <c r="AD7" s="112"/>
+      <c r="AE7" s="111"/>
+      <c r="AF7" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="AG7" s="87"/>
-      <c r="AH7" s="87"/>
-      <c r="AI7" s="86"/>
-    </row>
-    <row r="8" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" thickTop="1">
+      <c r="AG7" s="112"/>
+      <c r="AH7" s="112"/>
+      <c r="AI7" s="111"/>
+    </row>
+    <row r="8" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="23">
         <v>1</v>
       </c>
-      <c r="B8" s="134" t="s">
+      <c r="B8" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="135"/>
-      <c r="D8" s="136">
+      <c r="C8" s="96"/>
+      <c r="D8" s="97">
         <v>43404</v>
       </c>
-      <c r="E8" s="137"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="134" t="s">
+      <c r="E8" s="98"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="139"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="140" t="s">
+      <c r="H8" s="100"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="141"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="141"/>
-      <c r="N8" s="141"/>
-      <c r="O8" s="141"/>
-      <c r="P8" s="142"/>
-      <c r="Q8" s="143" t="s">
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="144"/>
-      <c r="S8" s="144"/>
-      <c r="T8" s="144"/>
-      <c r="U8" s="144"/>
-      <c r="V8" s="144"/>
-      <c r="W8" s="144"/>
-      <c r="X8" s="144"/>
-      <c r="Y8" s="144"/>
-      <c r="Z8" s="144"/>
-      <c r="AA8" s="144"/>
-      <c r="AB8" s="144"/>
-      <c r="AC8" s="144"/>
-      <c r="AD8" s="144"/>
-      <c r="AE8" s="145"/>
-      <c r="AF8" s="140" t="s">
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="105"/>
+      <c r="W8" s="105"/>
+      <c r="X8" s="105"/>
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="105"/>
+      <c r="AA8" s="105"/>
+      <c r="AB8" s="105"/>
+      <c r="AC8" s="105"/>
+      <c r="AD8" s="105"/>
+      <c r="AE8" s="106"/>
+      <c r="AF8" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="AG8" s="141"/>
-      <c r="AH8" s="141"/>
-      <c r="AI8" s="142"/>
-    </row>
-    <row r="9" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="AG8" s="102"/>
+      <c r="AH8" s="102"/>
+      <c r="AI8" s="103"/>
+    </row>
+    <row r="9" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="129"/>
-      <c r="M9" s="129"/>
-      <c r="N9" s="129"/>
-      <c r="O9" s="129"/>
-      <c r="P9" s="130"/>
-      <c r="Q9" s="131"/>
-      <c r="R9" s="132"/>
-      <c r="S9" s="132"/>
-      <c r="T9" s="132"/>
-      <c r="U9" s="132"/>
-      <c r="V9" s="132"/>
-      <c r="W9" s="132"/>
-      <c r="X9" s="132"/>
-      <c r="Y9" s="132"/>
-      <c r="Z9" s="132"/>
-      <c r="AA9" s="132"/>
-      <c r="AB9" s="132"/>
-      <c r="AC9" s="132"/>
-      <c r="AD9" s="132"/>
-      <c r="AE9" s="133"/>
-      <c r="AF9" s="128"/>
-      <c r="AG9" s="129"/>
-      <c r="AH9" s="129"/>
-      <c r="AI9" s="130"/>
-    </row>
-    <row r="10" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="B9" s="82"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="92"/>
+      <c r="V9" s="92"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="92"/>
+      <c r="Y9" s="92"/>
+      <c r="Z9" s="92"/>
+      <c r="AA9" s="92"/>
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="92"/>
+      <c r="AD9" s="92"/>
+      <c r="AE9" s="93"/>
+      <c r="AF9" s="88"/>
+      <c r="AG9" s="89"/>
+      <c r="AH9" s="89"/>
+      <c r="AI9" s="90"/>
+    </row>
+    <row r="10" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
-      <c r="B10" s="122"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="129"/>
-      <c r="M10" s="129"/>
-      <c r="N10" s="129"/>
-      <c r="O10" s="129"/>
-      <c r="P10" s="130"/>
-      <c r="Q10" s="131"/>
-      <c r="R10" s="132"/>
-      <c r="S10" s="132"/>
-      <c r="T10" s="132"/>
-      <c r="U10" s="132"/>
-      <c r="V10" s="132"/>
-      <c r="W10" s="132"/>
-      <c r="X10" s="132"/>
-      <c r="Y10" s="132"/>
-      <c r="Z10" s="132"/>
-      <c r="AA10" s="132"/>
-      <c r="AB10" s="132"/>
-      <c r="AC10" s="132"/>
-      <c r="AD10" s="132"/>
-      <c r="AE10" s="133"/>
-      <c r="AF10" s="128"/>
-      <c r="AG10" s="129"/>
-      <c r="AH10" s="129"/>
-      <c r="AI10" s="130"/>
-    </row>
-    <row r="11" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="B10" s="82"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="92"/>
+      <c r="T10" s="92"/>
+      <c r="U10" s="92"/>
+      <c r="V10" s="92"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="92"/>
+      <c r="Y10" s="92"/>
+      <c r="Z10" s="92"/>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="92"/>
+      <c r="AC10" s="92"/>
+      <c r="AD10" s="92"/>
+      <c r="AE10" s="93"/>
+      <c r="AF10" s="88"/>
+      <c r="AG10" s="89"/>
+      <c r="AH10" s="89"/>
+      <c r="AI10" s="90"/>
+    </row>
+    <row r="11" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="129"/>
-      <c r="M11" s="129"/>
-      <c r="N11" s="129"/>
-      <c r="O11" s="129"/>
-      <c r="P11" s="130"/>
-      <c r="Q11" s="131"/>
-      <c r="R11" s="132"/>
-      <c r="S11" s="132"/>
-      <c r="T11" s="132"/>
-      <c r="U11" s="132"/>
-      <c r="V11" s="132"/>
-      <c r="W11" s="132"/>
-      <c r="X11" s="132"/>
-      <c r="Y11" s="132"/>
-      <c r="Z11" s="132"/>
-      <c r="AA11" s="132"/>
-      <c r="AB11" s="132"/>
-      <c r="AC11" s="132"/>
-      <c r="AD11" s="132"/>
-      <c r="AE11" s="133"/>
-      <c r="AF11" s="128"/>
-      <c r="AG11" s="129"/>
-      <c r="AH11" s="129"/>
-      <c r="AI11" s="130"/>
-    </row>
-    <row r="12" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="B11" s="82"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="92"/>
+      <c r="T11" s="92"/>
+      <c r="U11" s="92"/>
+      <c r="V11" s="92"/>
+      <c r="W11" s="92"/>
+      <c r="X11" s="92"/>
+      <c r="Y11" s="92"/>
+      <c r="Z11" s="92"/>
+      <c r="AA11" s="92"/>
+      <c r="AB11" s="92"/>
+      <c r="AC11" s="92"/>
+      <c r="AD11" s="92"/>
+      <c r="AE11" s="93"/>
+      <c r="AF11" s="88"/>
+      <c r="AG11" s="89"/>
+      <c r="AH11" s="89"/>
+      <c r="AI11" s="90"/>
+    </row>
+    <row r="12" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="129"/>
-      <c r="N12" s="129"/>
-      <c r="O12" s="129"/>
-      <c r="P12" s="130"/>
-      <c r="Q12" s="131"/>
-      <c r="R12" s="132"/>
-      <c r="S12" s="132"/>
-      <c r="T12" s="132"/>
-      <c r="U12" s="132"/>
-      <c r="V12" s="132"/>
-      <c r="W12" s="132"/>
-      <c r="X12" s="132"/>
-      <c r="Y12" s="132"/>
-      <c r="Z12" s="132"/>
-      <c r="AA12" s="132"/>
-      <c r="AB12" s="132"/>
-      <c r="AC12" s="132"/>
-      <c r="AD12" s="132"/>
-      <c r="AE12" s="133"/>
-      <c r="AF12" s="128"/>
-      <c r="AG12" s="129"/>
-      <c r="AH12" s="129"/>
-      <c r="AI12" s="130"/>
-    </row>
-    <row r="13" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="B12" s="82"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="92"/>
+      <c r="S12" s="92"/>
+      <c r="T12" s="92"/>
+      <c r="U12" s="92"/>
+      <c r="V12" s="92"/>
+      <c r="W12" s="92"/>
+      <c r="X12" s="92"/>
+      <c r="Y12" s="92"/>
+      <c r="Z12" s="92"/>
+      <c r="AA12" s="92"/>
+      <c r="AB12" s="92"/>
+      <c r="AC12" s="92"/>
+      <c r="AD12" s="92"/>
+      <c r="AE12" s="93"/>
+      <c r="AF12" s="88"/>
+      <c r="AG12" s="89"/>
+      <c r="AH12" s="89"/>
+      <c r="AI12" s="90"/>
+    </row>
+    <row r="13" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="129"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="129"/>
-      <c r="O13" s="129"/>
-      <c r="P13" s="130"/>
-      <c r="Q13" s="131"/>
-      <c r="R13" s="132"/>
-      <c r="S13" s="132"/>
-      <c r="T13" s="132"/>
-      <c r="U13" s="132"/>
-      <c r="V13" s="132"/>
-      <c r="W13" s="132"/>
-      <c r="X13" s="132"/>
-      <c r="Y13" s="132"/>
-      <c r="Z13" s="132"/>
-      <c r="AA13" s="132"/>
-      <c r="AB13" s="132"/>
-      <c r="AC13" s="132"/>
-      <c r="AD13" s="132"/>
-      <c r="AE13" s="133"/>
-      <c r="AF13" s="128"/>
-      <c r="AG13" s="129"/>
-      <c r="AH13" s="129"/>
-      <c r="AI13" s="130"/>
-    </row>
-    <row r="14" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="B13" s="82"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="92"/>
+      <c r="T13" s="92"/>
+      <c r="U13" s="92"/>
+      <c r="V13" s="92"/>
+      <c r="W13" s="92"/>
+      <c r="X13" s="92"/>
+      <c r="Y13" s="92"/>
+      <c r="Z13" s="92"/>
+      <c r="AA13" s="92"/>
+      <c r="AB13" s="92"/>
+      <c r="AC13" s="92"/>
+      <c r="AD13" s="92"/>
+      <c r="AE13" s="93"/>
+      <c r="AF13" s="88"/>
+      <c r="AG13" s="89"/>
+      <c r="AH13" s="89"/>
+      <c r="AI13" s="90"/>
+    </row>
+    <row r="14" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="128"/>
-      <c r="K14" s="129"/>
-      <c r="L14" s="129"/>
-      <c r="M14" s="129"/>
-      <c r="N14" s="129"/>
-      <c r="O14" s="129"/>
-      <c r="P14" s="130"/>
-      <c r="Q14" s="131"/>
-      <c r="R14" s="132"/>
-      <c r="S14" s="132"/>
-      <c r="T14" s="132"/>
-      <c r="U14" s="132"/>
-      <c r="V14" s="132"/>
-      <c r="W14" s="132"/>
-      <c r="X14" s="132"/>
-      <c r="Y14" s="132"/>
-      <c r="Z14" s="132"/>
-      <c r="AA14" s="132"/>
-      <c r="AB14" s="132"/>
-      <c r="AC14" s="132"/>
-      <c r="AD14" s="132"/>
-      <c r="AE14" s="133"/>
-      <c r="AF14" s="128"/>
-      <c r="AG14" s="129"/>
-      <c r="AH14" s="129"/>
-      <c r="AI14" s="130"/>
-    </row>
-    <row r="15" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="B14" s="82"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="92"/>
+      <c r="T14" s="92"/>
+      <c r="U14" s="92"/>
+      <c r="V14" s="92"/>
+      <c r="W14" s="92"/>
+      <c r="X14" s="92"/>
+      <c r="Y14" s="92"/>
+      <c r="Z14" s="92"/>
+      <c r="AA14" s="92"/>
+      <c r="AB14" s="92"/>
+      <c r="AC14" s="92"/>
+      <c r="AD14" s="92"/>
+      <c r="AE14" s="93"/>
+      <c r="AF14" s="88"/>
+      <c r="AG14" s="89"/>
+      <c r="AH14" s="89"/>
+      <c r="AI14" s="90"/>
+    </row>
+    <row r="15" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
-      <c r="B15" s="122"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="129"/>
-      <c r="O15" s="129"/>
-      <c r="P15" s="130"/>
-      <c r="Q15" s="131"/>
-      <c r="R15" s="132"/>
-      <c r="S15" s="132"/>
-      <c r="T15" s="132"/>
-      <c r="U15" s="132"/>
-      <c r="V15" s="132"/>
-      <c r="W15" s="132"/>
-      <c r="X15" s="132"/>
-      <c r="Y15" s="132"/>
-      <c r="Z15" s="132"/>
-      <c r="AA15" s="132"/>
-      <c r="AB15" s="132"/>
-      <c r="AC15" s="132"/>
-      <c r="AD15" s="132"/>
-      <c r="AE15" s="133"/>
-      <c r="AF15" s="128"/>
-      <c r="AG15" s="129"/>
-      <c r="AH15" s="129"/>
-      <c r="AI15" s="130"/>
-    </row>
-    <row r="16" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="B15" s="82"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="92"/>
+      <c r="S15" s="92"/>
+      <c r="T15" s="92"/>
+      <c r="U15" s="92"/>
+      <c r="V15" s="92"/>
+      <c r="W15" s="92"/>
+      <c r="X15" s="92"/>
+      <c r="Y15" s="92"/>
+      <c r="Z15" s="92"/>
+      <c r="AA15" s="92"/>
+      <c r="AB15" s="92"/>
+      <c r="AC15" s="92"/>
+      <c r="AD15" s="92"/>
+      <c r="AE15" s="93"/>
+      <c r="AF15" s="88"/>
+      <c r="AG15" s="89"/>
+      <c r="AH15" s="89"/>
+      <c r="AI15" s="90"/>
+    </row>
+    <row r="16" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
-      <c r="B16" s="122"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="129"/>
-      <c r="M16" s="129"/>
-      <c r="N16" s="129"/>
-      <c r="O16" s="129"/>
-      <c r="P16" s="130"/>
-      <c r="Q16" s="131"/>
-      <c r="R16" s="132"/>
-      <c r="S16" s="132"/>
-      <c r="T16" s="132"/>
-      <c r="U16" s="132"/>
-      <c r="V16" s="132"/>
-      <c r="W16" s="132"/>
-      <c r="X16" s="132"/>
-      <c r="Y16" s="132"/>
-      <c r="Z16" s="132"/>
-      <c r="AA16" s="132"/>
-      <c r="AB16" s="132"/>
-      <c r="AC16" s="132"/>
-      <c r="AD16" s="132"/>
-      <c r="AE16" s="133"/>
-      <c r="AF16" s="128"/>
-      <c r="AG16" s="129"/>
-      <c r="AH16" s="129"/>
-      <c r="AI16" s="130"/>
-    </row>
-    <row r="17" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="B16" s="82"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="92"/>
+      <c r="T16" s="92"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="92"/>
+      <c r="W16" s="92"/>
+      <c r="X16" s="92"/>
+      <c r="Y16" s="92"/>
+      <c r="Z16" s="92"/>
+      <c r="AA16" s="92"/>
+      <c r="AB16" s="92"/>
+      <c r="AC16" s="92"/>
+      <c r="AD16" s="92"/>
+      <c r="AE16" s="93"/>
+      <c r="AF16" s="88"/>
+      <c r="AG16" s="89"/>
+      <c r="AH16" s="89"/>
+      <c r="AI16" s="90"/>
+    </row>
+    <row r="17" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="129"/>
-      <c r="N17" s="129"/>
-      <c r="O17" s="129"/>
-      <c r="P17" s="130"/>
-      <c r="Q17" s="131"/>
-      <c r="R17" s="132"/>
-      <c r="S17" s="132"/>
-      <c r="T17" s="132"/>
-      <c r="U17" s="132"/>
-      <c r="V17" s="132"/>
-      <c r="W17" s="132"/>
-      <c r="X17" s="132"/>
-      <c r="Y17" s="132"/>
-      <c r="Z17" s="132"/>
-      <c r="AA17" s="132"/>
-      <c r="AB17" s="132"/>
-      <c r="AC17" s="132"/>
-      <c r="AD17" s="132"/>
-      <c r="AE17" s="133"/>
-      <c r="AF17" s="128"/>
-      <c r="AG17" s="129"/>
-      <c r="AH17" s="129"/>
-      <c r="AI17" s="130"/>
-    </row>
-    <row r="18" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="B17" s="82"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="92"/>
+      <c r="S17" s="92"/>
+      <c r="T17" s="92"/>
+      <c r="U17" s="92"/>
+      <c r="V17" s="92"/>
+      <c r="W17" s="92"/>
+      <c r="X17" s="92"/>
+      <c r="Y17" s="92"/>
+      <c r="Z17" s="92"/>
+      <c r="AA17" s="92"/>
+      <c r="AB17" s="92"/>
+      <c r="AC17" s="92"/>
+      <c r="AD17" s="92"/>
+      <c r="AE17" s="93"/>
+      <c r="AF17" s="88"/>
+      <c r="AG17" s="89"/>
+      <c r="AH17" s="89"/>
+      <c r="AI17" s="90"/>
+    </row>
+    <row r="18" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
-      <c r="B18" s="122"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="124"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="129"/>
-      <c r="L18" s="129"/>
-      <c r="M18" s="129"/>
-      <c r="N18" s="129"/>
-      <c r="O18" s="129"/>
-      <c r="P18" s="130"/>
-      <c r="Q18" s="131"/>
-      <c r="R18" s="132"/>
-      <c r="S18" s="132"/>
-      <c r="T18" s="132"/>
-      <c r="U18" s="132"/>
-      <c r="V18" s="132"/>
-      <c r="W18" s="132"/>
-      <c r="X18" s="132"/>
-      <c r="Y18" s="132"/>
-      <c r="Z18" s="132"/>
-      <c r="AA18" s="132"/>
-      <c r="AB18" s="132"/>
-      <c r="AC18" s="132"/>
-      <c r="AD18" s="132"/>
-      <c r="AE18" s="133"/>
-      <c r="AF18" s="128"/>
-      <c r="AG18" s="129"/>
-      <c r="AH18" s="129"/>
-      <c r="AI18" s="130"/>
-    </row>
-    <row r="19" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="B18" s="82"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="92"/>
+      <c r="T18" s="92"/>
+      <c r="U18" s="92"/>
+      <c r="V18" s="92"/>
+      <c r="W18" s="92"/>
+      <c r="X18" s="92"/>
+      <c r="Y18" s="92"/>
+      <c r="Z18" s="92"/>
+      <c r="AA18" s="92"/>
+      <c r="AB18" s="92"/>
+      <c r="AC18" s="92"/>
+      <c r="AD18" s="92"/>
+      <c r="AE18" s="93"/>
+      <c r="AF18" s="88"/>
+      <c r="AG18" s="89"/>
+      <c r="AH18" s="89"/>
+      <c r="AI18" s="90"/>
+    </row>
+    <row r="19" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
-      <c r="B19" s="122"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="129"/>
-      <c r="N19" s="129"/>
-      <c r="O19" s="129"/>
-      <c r="P19" s="130"/>
-      <c r="Q19" s="131"/>
-      <c r="R19" s="132"/>
-      <c r="S19" s="132"/>
-      <c r="T19" s="132"/>
-      <c r="U19" s="132"/>
-      <c r="V19" s="132"/>
-      <c r="W19" s="132"/>
-      <c r="X19" s="132"/>
-      <c r="Y19" s="132"/>
-      <c r="Z19" s="132"/>
-      <c r="AA19" s="132"/>
-      <c r="AB19" s="132"/>
-      <c r="AC19" s="132"/>
-      <c r="AD19" s="132"/>
-      <c r="AE19" s="133"/>
-      <c r="AF19" s="128"/>
-      <c r="AG19" s="129"/>
-      <c r="AH19" s="129"/>
-      <c r="AI19" s="130"/>
-    </row>
-    <row r="20" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="B19" s="82"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="91"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="92"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="92"/>
+      <c r="V19" s="92"/>
+      <c r="W19" s="92"/>
+      <c r="X19" s="92"/>
+      <c r="Y19" s="92"/>
+      <c r="Z19" s="92"/>
+      <c r="AA19" s="92"/>
+      <c r="AB19" s="92"/>
+      <c r="AC19" s="92"/>
+      <c r="AD19" s="92"/>
+      <c r="AE19" s="93"/>
+      <c r="AF19" s="88"/>
+      <c r="AG19" s="89"/>
+      <c r="AH19" s="89"/>
+      <c r="AI19" s="90"/>
+    </row>
+    <row r="20" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
-      <c r="B20" s="122"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="128"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="129"/>
-      <c r="M20" s="129"/>
-      <c r="N20" s="129"/>
-      <c r="O20" s="129"/>
-      <c r="P20" s="130"/>
-      <c r="Q20" s="131"/>
-      <c r="R20" s="132"/>
-      <c r="S20" s="132"/>
-      <c r="T20" s="132"/>
-      <c r="U20" s="132"/>
-      <c r="V20" s="132"/>
-      <c r="W20" s="132"/>
-      <c r="X20" s="132"/>
-      <c r="Y20" s="132"/>
-      <c r="Z20" s="132"/>
-      <c r="AA20" s="132"/>
-      <c r="AB20" s="132"/>
-      <c r="AC20" s="132"/>
-      <c r="AD20" s="132"/>
-      <c r="AE20" s="133"/>
-      <c r="AF20" s="128"/>
-      <c r="AG20" s="129"/>
-      <c r="AH20" s="129"/>
-      <c r="AI20" s="130"/>
-    </row>
-    <row r="21" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="89"/>
+      <c r="P20" s="90"/>
+      <c r="Q20" s="91"/>
+      <c r="R20" s="92"/>
+      <c r="S20" s="92"/>
+      <c r="T20" s="92"/>
+      <c r="U20" s="92"/>
+      <c r="V20" s="92"/>
+      <c r="W20" s="92"/>
+      <c r="X20" s="92"/>
+      <c r="Y20" s="92"/>
+      <c r="Z20" s="92"/>
+      <c r="AA20" s="92"/>
+      <c r="AB20" s="92"/>
+      <c r="AC20" s="92"/>
+      <c r="AD20" s="92"/>
+      <c r="AE20" s="93"/>
+      <c r="AF20" s="88"/>
+      <c r="AG20" s="89"/>
+      <c r="AH20" s="89"/>
+      <c r="AI20" s="90"/>
+    </row>
+    <row r="21" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="128"/>
-      <c r="K21" s="129"/>
-      <c r="L21" s="129"/>
-      <c r="M21" s="129"/>
-      <c r="N21" s="129"/>
-      <c r="O21" s="129"/>
-      <c r="P21" s="130"/>
-      <c r="Q21" s="131"/>
-      <c r="R21" s="132"/>
-      <c r="S21" s="132"/>
-      <c r="T21" s="132"/>
-      <c r="U21" s="132"/>
-      <c r="V21" s="132"/>
-      <c r="W21" s="132"/>
-      <c r="X21" s="132"/>
-      <c r="Y21" s="132"/>
-      <c r="Z21" s="132"/>
-      <c r="AA21" s="132"/>
-      <c r="AB21" s="132"/>
-      <c r="AC21" s="132"/>
-      <c r="AD21" s="132"/>
-      <c r="AE21" s="133"/>
-      <c r="AF21" s="128"/>
-      <c r="AG21" s="129"/>
-      <c r="AH21" s="129"/>
-      <c r="AI21" s="130"/>
-    </row>
-    <row r="22" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="B21" s="82"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="92"/>
+      <c r="S21" s="92"/>
+      <c r="T21" s="92"/>
+      <c r="U21" s="92"/>
+      <c r="V21" s="92"/>
+      <c r="W21" s="92"/>
+      <c r="X21" s="92"/>
+      <c r="Y21" s="92"/>
+      <c r="Z21" s="92"/>
+      <c r="AA21" s="92"/>
+      <c r="AB21" s="92"/>
+      <c r="AC21" s="92"/>
+      <c r="AD21" s="92"/>
+      <c r="AE21" s="93"/>
+      <c r="AF21" s="88"/>
+      <c r="AG21" s="89"/>
+      <c r="AH21" s="89"/>
+      <c r="AI21" s="90"/>
+    </row>
+    <row r="22" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="129"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="129"/>
-      <c r="N22" s="129"/>
-      <c r="O22" s="129"/>
-      <c r="P22" s="130"/>
-      <c r="Q22" s="131"/>
-      <c r="R22" s="132"/>
-      <c r="S22" s="132"/>
-      <c r="T22" s="132"/>
-      <c r="U22" s="132"/>
-      <c r="V22" s="132"/>
-      <c r="W22" s="132"/>
-      <c r="X22" s="132"/>
-      <c r="Y22" s="132"/>
-      <c r="Z22" s="132"/>
-      <c r="AA22" s="132"/>
-      <c r="AB22" s="132"/>
-      <c r="AC22" s="132"/>
-      <c r="AD22" s="132"/>
-      <c r="AE22" s="133"/>
-      <c r="AF22" s="128"/>
-      <c r="AG22" s="129"/>
-      <c r="AH22" s="129"/>
-      <c r="AI22" s="130"/>
-    </row>
-    <row r="23" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="B22" s="82"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="91"/>
+      <c r="R22" s="92"/>
+      <c r="S22" s="92"/>
+      <c r="T22" s="92"/>
+      <c r="U22" s="92"/>
+      <c r="V22" s="92"/>
+      <c r="W22" s="92"/>
+      <c r="X22" s="92"/>
+      <c r="Y22" s="92"/>
+      <c r="Z22" s="92"/>
+      <c r="AA22" s="92"/>
+      <c r="AB22" s="92"/>
+      <c r="AC22" s="92"/>
+      <c r="AD22" s="92"/>
+      <c r="AE22" s="93"/>
+      <c r="AF22" s="88"/>
+      <c r="AG22" s="89"/>
+      <c r="AH22" s="89"/>
+      <c r="AI22" s="90"/>
+    </row>
+    <row r="23" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9"/>
-      <c r="B23" s="122"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="128"/>
-      <c r="K23" s="129"/>
-      <c r="L23" s="129"/>
-      <c r="M23" s="129"/>
-      <c r="N23" s="129"/>
-      <c r="O23" s="129"/>
-      <c r="P23" s="130"/>
-      <c r="Q23" s="131"/>
-      <c r="R23" s="132"/>
-      <c r="S23" s="132"/>
-      <c r="T23" s="132"/>
-      <c r="U23" s="132"/>
-      <c r="V23" s="132"/>
-      <c r="W23" s="132"/>
-      <c r="X23" s="132"/>
-      <c r="Y23" s="132"/>
-      <c r="Z23" s="132"/>
-      <c r="AA23" s="132"/>
-      <c r="AB23" s="132"/>
-      <c r="AC23" s="132"/>
-      <c r="AD23" s="132"/>
-      <c r="AE23" s="133"/>
-      <c r="AF23" s="128"/>
-      <c r="AG23" s="129"/>
-      <c r="AH23" s="129"/>
-      <c r="AI23" s="130"/>
-    </row>
-    <row r="24" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="B23" s="82"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="90"/>
+      <c r="Q23" s="91"/>
+      <c r="R23" s="92"/>
+      <c r="S23" s="92"/>
+      <c r="T23" s="92"/>
+      <c r="U23" s="92"/>
+      <c r="V23" s="92"/>
+      <c r="W23" s="92"/>
+      <c r="X23" s="92"/>
+      <c r="Y23" s="92"/>
+      <c r="Z23" s="92"/>
+      <c r="AA23" s="92"/>
+      <c r="AB23" s="92"/>
+      <c r="AC23" s="92"/>
+      <c r="AD23" s="92"/>
+      <c r="AE23" s="93"/>
+      <c r="AF23" s="88"/>
+      <c r="AG23" s="89"/>
+      <c r="AH23" s="89"/>
+      <c r="AI23" s="90"/>
+    </row>
+    <row r="24" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9"/>
-      <c r="B24" s="122"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="128"/>
-      <c r="K24" s="129"/>
-      <c r="L24" s="129"/>
-      <c r="M24" s="129"/>
-      <c r="N24" s="129"/>
-      <c r="O24" s="129"/>
-      <c r="P24" s="130"/>
-      <c r="Q24" s="131"/>
-      <c r="R24" s="132"/>
-      <c r="S24" s="132"/>
-      <c r="T24" s="132"/>
-      <c r="U24" s="132"/>
-      <c r="V24" s="132"/>
-      <c r="W24" s="132"/>
-      <c r="X24" s="132"/>
-      <c r="Y24" s="132"/>
-      <c r="Z24" s="132"/>
-      <c r="AA24" s="132"/>
-      <c r="AB24" s="132"/>
-      <c r="AC24" s="132"/>
-      <c r="AD24" s="132"/>
-      <c r="AE24" s="133"/>
-      <c r="AF24" s="128"/>
-      <c r="AG24" s="129"/>
-      <c r="AH24" s="129"/>
-      <c r="AI24" s="130"/>
-    </row>
-    <row r="25" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="B24" s="82"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="91"/>
+      <c r="R24" s="92"/>
+      <c r="S24" s="92"/>
+      <c r="T24" s="92"/>
+      <c r="U24" s="92"/>
+      <c r="V24" s="92"/>
+      <c r="W24" s="92"/>
+      <c r="X24" s="92"/>
+      <c r="Y24" s="92"/>
+      <c r="Z24" s="92"/>
+      <c r="AA24" s="92"/>
+      <c r="AB24" s="92"/>
+      <c r="AC24" s="92"/>
+      <c r="AD24" s="92"/>
+      <c r="AE24" s="93"/>
+      <c r="AF24" s="88"/>
+      <c r="AG24" s="89"/>
+      <c r="AH24" s="89"/>
+      <c r="AI24" s="90"/>
+    </row>
+    <row r="25" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="127"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="128"/>
-      <c r="K25" s="129"/>
-      <c r="L25" s="129"/>
-      <c r="M25" s="129"/>
-      <c r="N25" s="129"/>
-      <c r="O25" s="129"/>
-      <c r="P25" s="130"/>
-      <c r="Q25" s="131"/>
-      <c r="R25" s="132"/>
-      <c r="S25" s="132"/>
-      <c r="T25" s="132"/>
-      <c r="U25" s="132"/>
-      <c r="V25" s="132"/>
-      <c r="W25" s="132"/>
-      <c r="X25" s="132"/>
-      <c r="Y25" s="132"/>
-      <c r="Z25" s="132"/>
-      <c r="AA25" s="132"/>
-      <c r="AB25" s="132"/>
-      <c r="AC25" s="132"/>
-      <c r="AD25" s="132"/>
-      <c r="AE25" s="133"/>
-      <c r="AF25" s="128"/>
-      <c r="AG25" s="129"/>
-      <c r="AH25" s="129"/>
-      <c r="AI25" s="130"/>
-    </row>
-    <row r="26" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="B25" s="82"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="89"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="92"/>
+      <c r="S25" s="92"/>
+      <c r="T25" s="92"/>
+      <c r="U25" s="92"/>
+      <c r="V25" s="92"/>
+      <c r="W25" s="92"/>
+      <c r="X25" s="92"/>
+      <c r="Y25" s="92"/>
+      <c r="Z25" s="92"/>
+      <c r="AA25" s="92"/>
+      <c r="AB25" s="92"/>
+      <c r="AC25" s="92"/>
+      <c r="AD25" s="92"/>
+      <c r="AE25" s="93"/>
+      <c r="AF25" s="88"/>
+      <c r="AG25" s="89"/>
+      <c r="AH25" s="89"/>
+      <c r="AI25" s="90"/>
+    </row>
+    <row r="26" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9"/>
-      <c r="B26" s="122"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="124"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="128"/>
-      <c r="K26" s="129"/>
-      <c r="L26" s="129"/>
-      <c r="M26" s="129"/>
-      <c r="N26" s="129"/>
-      <c r="O26" s="129"/>
-      <c r="P26" s="130"/>
-      <c r="Q26" s="131"/>
-      <c r="R26" s="132"/>
-      <c r="S26" s="132"/>
-      <c r="T26" s="132"/>
-      <c r="U26" s="132"/>
-      <c r="V26" s="132"/>
-      <c r="W26" s="132"/>
-      <c r="X26" s="132"/>
-      <c r="Y26" s="132"/>
-      <c r="Z26" s="132"/>
-      <c r="AA26" s="132"/>
-      <c r="AB26" s="132"/>
-      <c r="AC26" s="132"/>
-      <c r="AD26" s="132"/>
-      <c r="AE26" s="133"/>
-      <c r="AF26" s="128"/>
-      <c r="AG26" s="129"/>
-      <c r="AH26" s="129"/>
-      <c r="AI26" s="130"/>
-    </row>
-    <row r="27" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="B26" s="82"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="90"/>
+      <c r="Q26" s="91"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="92"/>
+      <c r="T26" s="92"/>
+      <c r="U26" s="92"/>
+      <c r="V26" s="92"/>
+      <c r="W26" s="92"/>
+      <c r="X26" s="92"/>
+      <c r="Y26" s="92"/>
+      <c r="Z26" s="92"/>
+      <c r="AA26" s="92"/>
+      <c r="AB26" s="92"/>
+      <c r="AC26" s="92"/>
+      <c r="AD26" s="92"/>
+      <c r="AE26" s="93"/>
+      <c r="AF26" s="88"/>
+      <c r="AG26" s="89"/>
+      <c r="AH26" s="89"/>
+      <c r="AI26" s="90"/>
+    </row>
+    <row r="27" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9"/>
-      <c r="B27" s="122"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="124"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="127"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="128"/>
-      <c r="K27" s="129"/>
-      <c r="L27" s="129"/>
-      <c r="M27" s="129"/>
-      <c r="N27" s="129"/>
-      <c r="O27" s="129"/>
-      <c r="P27" s="130"/>
-      <c r="Q27" s="131"/>
-      <c r="R27" s="132"/>
-      <c r="S27" s="132"/>
-      <c r="T27" s="132"/>
-      <c r="U27" s="132"/>
-      <c r="V27" s="132"/>
-      <c r="W27" s="132"/>
-      <c r="X27" s="132"/>
-      <c r="Y27" s="132"/>
-      <c r="Z27" s="132"/>
-      <c r="AA27" s="132"/>
-      <c r="AB27" s="132"/>
-      <c r="AC27" s="132"/>
-      <c r="AD27" s="132"/>
-      <c r="AE27" s="133"/>
-      <c r="AF27" s="128"/>
-      <c r="AG27" s="129"/>
-      <c r="AH27" s="129"/>
-      <c r="AI27" s="130"/>
-    </row>
-    <row r="28" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="B27" s="82"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="89"/>
+      <c r="O27" s="89"/>
+      <c r="P27" s="90"/>
+      <c r="Q27" s="91"/>
+      <c r="R27" s="92"/>
+      <c r="S27" s="92"/>
+      <c r="T27" s="92"/>
+      <c r="U27" s="92"/>
+      <c r="V27" s="92"/>
+      <c r="W27" s="92"/>
+      <c r="X27" s="92"/>
+      <c r="Y27" s="92"/>
+      <c r="Z27" s="92"/>
+      <c r="AA27" s="92"/>
+      <c r="AB27" s="92"/>
+      <c r="AC27" s="92"/>
+      <c r="AD27" s="92"/>
+      <c r="AE27" s="93"/>
+      <c r="AF27" s="88"/>
+      <c r="AG27" s="89"/>
+      <c r="AH27" s="89"/>
+      <c r="AI27" s="90"/>
+    </row>
+    <row r="28" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
-      <c r="B28" s="122"/>
-      <c r="C28" s="123"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="122"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="128"/>
-      <c r="K28" s="129"/>
-      <c r="L28" s="129"/>
-      <c r="M28" s="129"/>
-      <c r="N28" s="129"/>
-      <c r="O28" s="129"/>
-      <c r="P28" s="130"/>
-      <c r="Q28" s="131"/>
-      <c r="R28" s="132"/>
-      <c r="S28" s="132"/>
-      <c r="T28" s="132"/>
-      <c r="U28" s="132"/>
-      <c r="V28" s="132"/>
-      <c r="W28" s="132"/>
-      <c r="X28" s="132"/>
-      <c r="Y28" s="132"/>
-      <c r="Z28" s="132"/>
-      <c r="AA28" s="132"/>
-      <c r="AB28" s="132"/>
-      <c r="AC28" s="132"/>
-      <c r="AD28" s="132"/>
-      <c r="AE28" s="133"/>
-      <c r="AF28" s="128"/>
-      <c r="AG28" s="129"/>
-      <c r="AH28" s="129"/>
-      <c r="AI28" s="130"/>
-    </row>
-    <row r="29" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="B28" s="82"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="90"/>
+      <c r="Q28" s="91"/>
+      <c r="R28" s="92"/>
+      <c r="S28" s="92"/>
+      <c r="T28" s="92"/>
+      <c r="U28" s="92"/>
+      <c r="V28" s="92"/>
+      <c r="W28" s="92"/>
+      <c r="X28" s="92"/>
+      <c r="Y28" s="92"/>
+      <c r="Z28" s="92"/>
+      <c r="AA28" s="92"/>
+      <c r="AB28" s="92"/>
+      <c r="AC28" s="92"/>
+      <c r="AD28" s="92"/>
+      <c r="AE28" s="93"/>
+      <c r="AF28" s="88"/>
+      <c r="AG28" s="89"/>
+      <c r="AH28" s="89"/>
+      <c r="AI28" s="90"/>
+    </row>
+    <row r="29" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
-      <c r="B29" s="122"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="128"/>
-      <c r="K29" s="129"/>
-      <c r="L29" s="129"/>
-      <c r="M29" s="129"/>
-      <c r="N29" s="129"/>
-      <c r="O29" s="129"/>
-      <c r="P29" s="130"/>
-      <c r="Q29" s="131"/>
-      <c r="R29" s="132"/>
-      <c r="S29" s="132"/>
-      <c r="T29" s="132"/>
-      <c r="U29" s="132"/>
-      <c r="V29" s="132"/>
-      <c r="W29" s="132"/>
-      <c r="X29" s="132"/>
-      <c r="Y29" s="132"/>
-      <c r="Z29" s="132"/>
-      <c r="AA29" s="132"/>
-      <c r="AB29" s="132"/>
-      <c r="AC29" s="132"/>
-      <c r="AD29" s="132"/>
-      <c r="AE29" s="133"/>
-      <c r="AF29" s="128"/>
-      <c r="AG29" s="129"/>
-      <c r="AH29" s="129"/>
-      <c r="AI29" s="130"/>
-    </row>
-    <row r="30" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="B29" s="82"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="89"/>
+      <c r="O29" s="89"/>
+      <c r="P29" s="90"/>
+      <c r="Q29" s="91"/>
+      <c r="R29" s="92"/>
+      <c r="S29" s="92"/>
+      <c r="T29" s="92"/>
+      <c r="U29" s="92"/>
+      <c r="V29" s="92"/>
+      <c r="W29" s="92"/>
+      <c r="X29" s="92"/>
+      <c r="Y29" s="92"/>
+      <c r="Z29" s="92"/>
+      <c r="AA29" s="92"/>
+      <c r="AB29" s="92"/>
+      <c r="AC29" s="92"/>
+      <c r="AD29" s="92"/>
+      <c r="AE29" s="93"/>
+      <c r="AF29" s="88"/>
+      <c r="AG29" s="89"/>
+      <c r="AH29" s="89"/>
+      <c r="AI29" s="90"/>
+    </row>
+    <row r="30" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9"/>
-      <c r="B30" s="122"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="127"/>
-      <c r="I30" s="123"/>
-      <c r="J30" s="128"/>
-      <c r="K30" s="129"/>
-      <c r="L30" s="129"/>
-      <c r="M30" s="129"/>
-      <c r="N30" s="129"/>
-      <c r="O30" s="129"/>
-      <c r="P30" s="130"/>
-      <c r="Q30" s="131"/>
-      <c r="R30" s="132"/>
-      <c r="S30" s="132"/>
-      <c r="T30" s="132"/>
-      <c r="U30" s="132"/>
-      <c r="V30" s="132"/>
-      <c r="W30" s="132"/>
-      <c r="X30" s="132"/>
-      <c r="Y30" s="132"/>
-      <c r="Z30" s="132"/>
-      <c r="AA30" s="132"/>
-      <c r="AB30" s="132"/>
-      <c r="AC30" s="132"/>
-      <c r="AD30" s="132"/>
-      <c r="AE30" s="133"/>
-      <c r="AF30" s="128"/>
-      <c r="AG30" s="129"/>
-      <c r="AH30" s="129"/>
-      <c r="AI30" s="130"/>
-    </row>
-    <row r="31" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="B30" s="82"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="90"/>
+      <c r="Q30" s="91"/>
+      <c r="R30" s="92"/>
+      <c r="S30" s="92"/>
+      <c r="T30" s="92"/>
+      <c r="U30" s="92"/>
+      <c r="V30" s="92"/>
+      <c r="W30" s="92"/>
+      <c r="X30" s="92"/>
+      <c r="Y30" s="92"/>
+      <c r="Z30" s="92"/>
+      <c r="AA30" s="92"/>
+      <c r="AB30" s="92"/>
+      <c r="AC30" s="92"/>
+      <c r="AD30" s="92"/>
+      <c r="AE30" s="93"/>
+      <c r="AF30" s="88"/>
+      <c r="AG30" s="89"/>
+      <c r="AH30" s="89"/>
+      <c r="AI30" s="90"/>
+    </row>
+    <row r="31" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9"/>
-      <c r="B31" s="122"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="128"/>
-      <c r="K31" s="129"/>
-      <c r="L31" s="129"/>
-      <c r="M31" s="129"/>
-      <c r="N31" s="129"/>
-      <c r="O31" s="129"/>
-      <c r="P31" s="130"/>
-      <c r="Q31" s="131"/>
-      <c r="R31" s="132"/>
-      <c r="S31" s="132"/>
-      <c r="T31" s="132"/>
-      <c r="U31" s="132"/>
-      <c r="V31" s="132"/>
-      <c r="W31" s="132"/>
-      <c r="X31" s="132"/>
-      <c r="Y31" s="132"/>
-      <c r="Z31" s="132"/>
-      <c r="AA31" s="132"/>
-      <c r="AB31" s="132"/>
-      <c r="AC31" s="132"/>
-      <c r="AD31" s="132"/>
-      <c r="AE31" s="133"/>
-      <c r="AF31" s="128"/>
-      <c r="AG31" s="129"/>
-      <c r="AH31" s="129"/>
-      <c r="AI31" s="130"/>
-    </row>
-    <row r="32" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="B31" s="82"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="89"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="90"/>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="92"/>
+      <c r="S31" s="92"/>
+      <c r="T31" s="92"/>
+      <c r="U31" s="92"/>
+      <c r="V31" s="92"/>
+      <c r="W31" s="92"/>
+      <c r="X31" s="92"/>
+      <c r="Y31" s="92"/>
+      <c r="Z31" s="92"/>
+      <c r="AA31" s="92"/>
+      <c r="AB31" s="92"/>
+      <c r="AC31" s="92"/>
+      <c r="AD31" s="92"/>
+      <c r="AE31" s="93"/>
+      <c r="AF31" s="88"/>
+      <c r="AG31" s="89"/>
+      <c r="AH31" s="89"/>
+      <c r="AI31" s="90"/>
+    </row>
+    <row r="32" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9"/>
-      <c r="B32" s="122"/>
-      <c r="C32" s="123"/>
-      <c r="D32" s="124"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="122"/>
-      <c r="H32" s="127"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="128"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="129"/>
-      <c r="M32" s="129"/>
-      <c r="N32" s="129"/>
-      <c r="O32" s="129"/>
-      <c r="P32" s="130"/>
-      <c r="Q32" s="131"/>
-      <c r="R32" s="132"/>
-      <c r="S32" s="132"/>
-      <c r="T32" s="132"/>
-      <c r="U32" s="132"/>
-      <c r="V32" s="132"/>
-      <c r="W32" s="132"/>
-      <c r="X32" s="132"/>
-      <c r="Y32" s="132"/>
-      <c r="Z32" s="132"/>
-      <c r="AA32" s="132"/>
-      <c r="AB32" s="132"/>
-      <c r="AC32" s="132"/>
-      <c r="AD32" s="132"/>
-      <c r="AE32" s="133"/>
-      <c r="AF32" s="128"/>
-      <c r="AG32" s="129"/>
-      <c r="AH32" s="129"/>
-      <c r="AI32" s="130"/>
-    </row>
-    <row r="33" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="B32" s="82"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="94"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="89"/>
+      <c r="P32" s="90"/>
+      <c r="Q32" s="91"/>
+      <c r="R32" s="92"/>
+      <c r="S32" s="92"/>
+      <c r="T32" s="92"/>
+      <c r="U32" s="92"/>
+      <c r="V32" s="92"/>
+      <c r="W32" s="92"/>
+      <c r="X32" s="92"/>
+      <c r="Y32" s="92"/>
+      <c r="Z32" s="92"/>
+      <c r="AA32" s="92"/>
+      <c r="AB32" s="92"/>
+      <c r="AC32" s="92"/>
+      <c r="AD32" s="92"/>
+      <c r="AE32" s="93"/>
+      <c r="AF32" s="88"/>
+      <c r="AG32" s="89"/>
+      <c r="AH32" s="89"/>
+      <c r="AI32" s="90"/>
+    </row>
+    <row r="33" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9"/>
-      <c r="B33" s="122"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="122"/>
-      <c r="H33" s="127"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="128"/>
-      <c r="K33" s="129"/>
-      <c r="L33" s="129"/>
-      <c r="M33" s="129"/>
-      <c r="N33" s="129"/>
-      <c r="O33" s="129"/>
-      <c r="P33" s="130"/>
-      <c r="Q33" s="131"/>
-      <c r="R33" s="132"/>
-      <c r="S33" s="132"/>
-      <c r="T33" s="132"/>
-      <c r="U33" s="132"/>
-      <c r="V33" s="132"/>
-      <c r="W33" s="132"/>
-      <c r="X33" s="132"/>
-      <c r="Y33" s="132"/>
-      <c r="Z33" s="132"/>
-      <c r="AA33" s="132"/>
-      <c r="AB33" s="132"/>
-      <c r="AC33" s="132"/>
-      <c r="AD33" s="132"/>
-      <c r="AE33" s="133"/>
-      <c r="AF33" s="128"/>
-      <c r="AG33" s="129"/>
-      <c r="AH33" s="129"/>
-      <c r="AI33" s="130"/>
-    </row>
-    <row r="34" spans="1:35" ht="14.25">
+      <c r="B33" s="82"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="89"/>
+      <c r="O33" s="89"/>
+      <c r="P33" s="90"/>
+      <c r="Q33" s="91"/>
+      <c r="R33" s="92"/>
+      <c r="S33" s="92"/>
+      <c r="T33" s="92"/>
+      <c r="U33" s="92"/>
+      <c r="V33" s="92"/>
+      <c r="W33" s="92"/>
+      <c r="X33" s="92"/>
+      <c r="Y33" s="92"/>
+      <c r="Z33" s="92"/>
+      <c r="AA33" s="92"/>
+      <c r="AB33" s="92"/>
+      <c r="AC33" s="92"/>
+      <c r="AD33" s="92"/>
+      <c r="AE33" s="93"/>
+      <c r="AF33" s="88"/>
+      <c r="AG33" s="89"/>
+      <c r="AH33" s="89"/>
+      <c r="AI33" s="90"/>
+    </row>
+    <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -4071,6 +3834,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -4086,11 +4005,11 @@
   </sheetPr>
   <dimension ref="A1:AL52"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="50" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="70" customWidth="1"/>
@@ -4225,169 +4144,169 @@
     <col min="16163" max="16384" width="4.83203125" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="32" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A1" s="158" t="s">
+    <row r="1" spans="1:38" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="153" t="str">
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="161" t="s">
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="170" t="str">
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="155"/>
+      <c r="S1" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="171"/>
-      <c r="U1" s="171"/>
-      <c r="V1" s="171"/>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="171"/>
-      <c r="Z1" s="172"/>
-      <c r="AA1" s="179" t="s">
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="164"/>
+      <c r="AA1" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="180"/>
-      <c r="AC1" s="150" t="str">
+      <c r="AB1" s="172"/>
+      <c r="AC1" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="147">
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
+      <c r="AF1" s="178"/>
+      <c r="AG1" s="173">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="148"/>
-      <c r="AI1" s="149"/>
+      <c r="AH1" s="174"/>
+      <c r="AI1" s="175"/>
       <c r="AJ1" s="31"/>
       <c r="AK1" s="31"/>
       <c r="AL1" s="39"/>
     </row>
-    <row r="2" spans="1:38" s="32" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A2" s="158" t="s">
+    <row r="2" spans="1:38" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="153" t="str">
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="166"/>
-      <c r="S2" s="173"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="179" t="s">
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="167"/>
+      <c r="AA2" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="180"/>
-      <c r="AC2" s="150" t="str">
+      <c r="AB2" s="172"/>
+      <c r="AC2" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="147" t="str">
+      <c r="AD2" s="177"/>
+      <c r="AE2" s="177"/>
+      <c r="AF2" s="178"/>
+      <c r="AG2" s="173" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="148"/>
-      <c r="AI2" s="149"/>
+      <c r="AH2" s="174"/>
+      <c r="AI2" s="175"/>
       <c r="AJ2" s="31"/>
       <c r="AK2" s="31"/>
       <c r="AL2" s="31"/>
     </row>
-    <row r="3" spans="1:38" s="32" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A3" s="158" t="s">
+    <row r="3" spans="1:38" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="153" t="str">
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="169"/>
-      <c r="S3" s="176"/>
-      <c r="T3" s="177"/>
-      <c r="U3" s="177"/>
-      <c r="V3" s="177"/>
-      <c r="W3" s="177"/>
-      <c r="X3" s="177"/>
-      <c r="Y3" s="177"/>
-      <c r="Z3" s="178"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="157"/>
-      <c r="AC3" s="150" t="str">
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="160"/>
+      <c r="R3" s="161"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="169"/>
+      <c r="U3" s="169"/>
+      <c r="V3" s="169"/>
+      <c r="W3" s="169"/>
+      <c r="X3" s="169"/>
+      <c r="Y3" s="169"/>
+      <c r="Z3" s="170"/>
+      <c r="AA3" s="179"/>
+      <c r="AB3" s="180"/>
+      <c r="AC3" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="147" t="str">
+      <c r="AD3" s="177"/>
+      <c r="AE3" s="177"/>
+      <c r="AF3" s="178"/>
+      <c r="AG3" s="173" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="148"/>
-      <c r="AI3" s="149"/>
+      <c r="AH3" s="174"/>
+      <c r="AI3" s="175"/>
       <c r="AJ3" s="31"/>
       <c r="AK3" s="31"/>
       <c r="AL3" s="31"/>
     </row>
-    <row r="4" spans="1:38" s="42" customFormat="1" ht="19.5" customHeight="1">
+    <row r="4" spans="1:38" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -4424,7 +4343,7 @@
       <c r="AH4" s="40"/>
       <c r="AI4" s="40"/>
     </row>
-    <row r="5" spans="1:38" s="42" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:38" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -4463,7 +4382,7 @@
       <c r="AH5" s="40"/>
       <c r="AI5" s="40"/>
     </row>
-    <row r="6" spans="1:38" s="42" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:38" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
@@ -4500,7 +4419,7 @@
       <c r="AH6" s="40"/>
       <c r="AI6" s="40"/>
     </row>
-    <row r="7" spans="1:38" ht="15" customHeight="1">
+    <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="35"/>
       <c r="B7" s="33" t="s">
         <v>37</v>
@@ -4539,7 +4458,7 @@
       <c r="AH7" s="48"/>
       <c r="AI7" s="49"/>
     </row>
-    <row r="8" spans="1:38" ht="15" customHeight="1">
+    <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -4576,7 +4495,7 @@
       <c r="AH8" s="52"/>
       <c r="AI8" s="49"/>
     </row>
-    <row r="9" spans="1:38" ht="15" customHeight="1">
+    <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -4613,7 +4532,7 @@
       <c r="AH9" s="53"/>
       <c r="AI9" s="35"/>
     </row>
-    <row r="10" spans="1:38" ht="15" customHeight="1">
+    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -4650,7 +4569,7 @@
       <c r="AH10" s="48"/>
       <c r="AI10" s="49"/>
     </row>
-    <row r="11" spans="1:38" ht="15" customHeight="1">
+    <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="35"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -4687,7 +4606,7 @@
       <c r="AH11" s="48"/>
       <c r="AI11" s="49"/>
     </row>
-    <row r="12" spans="1:38" ht="15" customHeight="1">
+    <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="35"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -4724,7 +4643,7 @@
       <c r="AH12" s="48"/>
       <c r="AI12" s="49"/>
     </row>
-    <row r="13" spans="1:38" ht="15" customHeight="1">
+    <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="35"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -4761,7 +4680,7 @@
       <c r="AH13" s="48"/>
       <c r="AI13" s="49"/>
     </row>
-    <row r="14" spans="1:38" ht="15" customHeight="1">
+    <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="35"/>
       <c r="B14" s="49"/>
       <c r="C14" s="49"/>
@@ -4798,7 +4717,7 @@
       <c r="AH14" s="48"/>
       <c r="AI14" s="49"/>
     </row>
-    <row r="15" spans="1:38" ht="15" customHeight="1">
+    <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="35"/>
       <c r="B15" s="54"/>
       <c r="C15" s="44"/>
@@ -4835,7 +4754,7 @@
       <c r="AH15" s="48"/>
       <c r="AI15" s="49"/>
     </row>
-    <row r="16" spans="1:38" ht="15" customHeight="1">
+    <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="35"/>
       <c r="B16" s="40"/>
       <c r="C16" s="35"/>
@@ -4872,7 +4791,7 @@
       <c r="AH16" s="48"/>
       <c r="AI16" s="49"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
       <c r="B17" s="40"/>
       <c r="C17" s="35"/>
@@ -4909,7 +4828,7 @@
       <c r="AH17" s="48"/>
       <c r="AI17" s="49"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="40"/>
       <c r="C18" s="35"/>
@@ -4946,7 +4865,7 @@
       <c r="AH18" s="48"/>
       <c r="AI18" s="49"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="35"/>
       <c r="B19" s="40"/>
       <c r="C19" s="35"/>
@@ -4983,7 +4902,7 @@
       <c r="AH19" s="48"/>
       <c r="AI19" s="49"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="35"/>
       <c r="B20" s="40"/>
       <c r="C20" s="35"/>
@@ -5020,7 +4939,7 @@
       <c r="AH20" s="48"/>
       <c r="AI20" s="49"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="35"/>
       <c r="B21" s="40"/>
       <c r="C21" s="35"/>
@@ -5057,7 +4976,7 @@
       <c r="AH21" s="48"/>
       <c r="AI21" s="49"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="35"/>
       <c r="B22" s="40"/>
       <c r="C22" s="35"/>
@@ -5094,7 +5013,7 @@
       <c r="AH22" s="48"/>
       <c r="AI22" s="49"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="35"/>
       <c r="B23" s="54"/>
       <c r="C23" s="44"/>
@@ -5131,7 +5050,7 @@
       <c r="AH23" s="48"/>
       <c r="AI23" s="49"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="35"/>
       <c r="B24" s="40"/>
       <c r="C24" s="35"/>
@@ -5168,7 +5087,7 @@
       <c r="AH24" s="48"/>
       <c r="AI24" s="49"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="35"/>
       <c r="B25" s="40"/>
       <c r="C25" s="35"/>
@@ -5205,7 +5124,7 @@
       <c r="AH25" s="48"/>
       <c r="AI25" s="49"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="35"/>
       <c r="B26" s="40"/>
       <c r="C26" s="35"/>
@@ -5242,7 +5161,7 @@
       <c r="AH26" s="48"/>
       <c r="AI26" s="49"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="35"/>
       <c r="B27" s="40"/>
       <c r="C27" s="35"/>
@@ -5279,7 +5198,7 @@
       <c r="AH27" s="48"/>
       <c r="AI27" s="49"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="35"/>
       <c r="B28" s="40"/>
       <c r="C28" s="35"/>
@@ -5316,7 +5235,7 @@
       <c r="AH28" s="48"/>
       <c r="AI28" s="49"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="35"/>
       <c r="B29" s="40"/>
       <c r="C29" s="35"/>
@@ -5353,7 +5272,7 @@
       <c r="AH29" s="48"/>
       <c r="AI29" s="49"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="55"/>
       <c r="B30" s="40"/>
       <c r="C30" s="40"/>
@@ -5390,7 +5309,7 @@
       <c r="AH30" s="58"/>
       <c r="AI30" s="59"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="55"/>
       <c r="B31" s="40"/>
       <c r="C31" s="41"/>
@@ -5427,7 +5346,7 @@
       <c r="AH31" s="58"/>
       <c r="AI31" s="59"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55"/>
       <c r="B32" s="62"/>
       <c r="C32" s="35"/>
@@ -5464,7 +5383,7 @@
       <c r="AH32" s="58"/>
       <c r="AI32" s="59"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="55"/>
       <c r="B33" s="62"/>
       <c r="C33" s="35"/>
@@ -5501,7 +5420,7 @@
       <c r="AH33" s="58"/>
       <c r="AI33" s="59"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55"/>
       <c r="B34" s="62"/>
       <c r="C34" s="35"/>
@@ -5538,7 +5457,7 @@
       <c r="AH34" s="58"/>
       <c r="AI34" s="59"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="55"/>
       <c r="B35" s="62"/>
       <c r="C35" s="35"/>
@@ -5575,7 +5494,7 @@
       <c r="AH35" s="58"/>
       <c r="AI35" s="59"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="55"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55"/>
@@ -5612,7 +5531,7 @@
       <c r="AH36" s="67"/>
       <c r="AI36" s="55"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="68"/>
       <c r="E37" s="68"/>
       <c r="F37" s="68"/>
@@ -5644,7 +5563,7 @@
       <c r="AH37" s="75"/>
       <c r="AI37" s="71"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1">
+    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S38" s="71"/>
       <c r="T38" s="71"/>
       <c r="U38" s="72"/>
@@ -5663,7 +5582,7 @@
       <c r="AH38" s="78"/>
       <c r="AI38" s="71"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1">
+    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q39" s="79"/>
       <c r="S39" s="71"/>
       <c r="T39" s="72"/>
@@ -5683,7 +5602,7 @@
       <c r="AH39" s="78"/>
       <c r="AI39" s="71"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1">
+    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S40" s="71"/>
       <c r="T40" s="71"/>
       <c r="U40" s="71"/>
@@ -5702,7 +5621,7 @@
       <c r="AH40" s="78"/>
       <c r="AI40" s="71"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J41" s="68"/>
       <c r="K41" s="68"/>
       <c r="L41" s="68"/>
@@ -5716,37 +5635,37 @@
       <c r="AH41" s="78"/>
       <c r="AI41" s="71"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1">
+    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE42" s="71"/>
       <c r="AF42" s="76"/>
       <c r="AG42" s="77"/>
       <c r="AH42" s="78"/>
       <c r="AI42" s="71"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1">
+    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE43" s="71"/>
       <c r="AF43" s="76"/>
       <c r="AG43" s="76"/>
       <c r="AH43" s="78"/>
       <c r="AI43" s="71"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1">
+    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="68"/>
       <c r="AF44" s="80"/>
       <c r="AG44" s="80"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1">
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="68"/>
       <c r="AG45" s="80"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF46" s="80"/>
       <c r="AG46" s="80"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1">
+    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG47" s="80"/>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1">
+    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S48" s="68"/>
       <c r="T48" s="68"/>
       <c r="V48" s="68"/>
@@ -5759,7 +5678,7 @@
       <c r="AC48" s="68"/>
       <c r="AD48" s="68"/>
     </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1">
+    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R49" s="68"/>
       <c r="S49" s="68"/>
       <c r="T49" s="68"/>
@@ -5774,10 +5693,10 @@
       <c r="AD49" s="68"/>
       <c r="AG49" s="80"/>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1">
+    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R50" s="68"/>
     </row>
-    <row r="51" spans="1:34" s="68" customFormat="1" ht="15" customHeight="1">
+    <row r="51" spans="1:34" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="50"/>
       <c r="B51" s="50"/>
       <c r="C51" s="50"/>
@@ -5810,7 +5729,7 @@
       <c r="AD51" s="50"/>
       <c r="AH51" s="79"/>
     </row>
-    <row r="52" spans="1:34" s="68" customFormat="1" ht="15" customHeight="1">
+    <row r="52" spans="1:34" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="50"/>
       <c r="B52" s="50"/>
       <c r="C52" s="50"/>
@@ -5845,6 +5764,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -5854,14 +5781,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -5871,626 +5790,626 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AP28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="32" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A1" s="158" t="s">
+    <row r="1" spans="1:42" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="153" t="str">
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="195" t="s">
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="196"/>
-      <c r="Q1" s="196"/>
-      <c r="R1" s="197"/>
-      <c r="S1" s="204" t="str">
+      <c r="P1" s="206"/>
+      <c r="Q1" s="206"/>
+      <c r="R1" s="207"/>
+      <c r="S1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="205"/>
-      <c r="U1" s="205"/>
-      <c r="V1" s="205"/>
-      <c r="W1" s="205"/>
-      <c r="X1" s="205"/>
-      <c r="Y1" s="205"/>
-      <c r="Z1" s="206"/>
-      <c r="AA1" s="158" t="s">
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="192"/>
+      <c r="AA1" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="150" t="str">
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="147">
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
+      <c r="AF1" s="178"/>
+      <c r="AG1" s="173">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="148"/>
-      <c r="AI1" s="149"/>
+      <c r="AH1" s="174"/>
+      <c r="AI1" s="175"/>
       <c r="AJ1" s="31"/>
       <c r="AK1" s="31"/>
       <c r="AL1" s="31"/>
     </row>
-    <row r="2" spans="1:42" s="32" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A2" s="158" t="s">
+    <row r="2" spans="1:42" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="153" t="str">
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="198"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="207"/>
-      <c r="T2" s="208"/>
-      <c r="U2" s="208"/>
-      <c r="V2" s="208"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="208"/>
-      <c r="Y2" s="208"/>
-      <c r="Z2" s="209"/>
-      <c r="AA2" s="158" t="s">
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="210"/>
+      <c r="S2" s="193"/>
+      <c r="T2" s="194"/>
+      <c r="U2" s="194"/>
+      <c r="V2" s="194"/>
+      <c r="W2" s="194"/>
+      <c r="X2" s="194"/>
+      <c r="Y2" s="194"/>
+      <c r="Z2" s="195"/>
+      <c r="AA2" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="150" t="str">
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="147" t="str">
+      <c r="AD2" s="177"/>
+      <c r="AE2" s="177"/>
+      <c r="AF2" s="178"/>
+      <c r="AG2" s="173" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="148"/>
-      <c r="AI2" s="149"/>
+      <c r="AH2" s="174"/>
+      <c r="AI2" s="175"/>
       <c r="AJ2" s="31"/>
       <c r="AK2" s="31"/>
       <c r="AL2" s="31"/>
     </row>
-    <row r="3" spans="1:42" s="32" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A3" s="158" t="s">
+    <row r="3" spans="1:42" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="153" t="str">
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="201"/>
-      <c r="P3" s="202"/>
-      <c r="Q3" s="202"/>
-      <c r="R3" s="203"/>
-      <c r="S3" s="210"/>
-      <c r="T3" s="211"/>
-      <c r="U3" s="211"/>
-      <c r="V3" s="211"/>
-      <c r="W3" s="211"/>
-      <c r="X3" s="211"/>
-      <c r="Y3" s="211"/>
-      <c r="Z3" s="212"/>
-      <c r="AA3" s="158"/>
-      <c r="AB3" s="160"/>
-      <c r="AC3" s="150" t="str">
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="211"/>
+      <c r="P3" s="212"/>
+      <c r="Q3" s="212"/>
+      <c r="R3" s="213"/>
+      <c r="S3" s="196"/>
+      <c r="T3" s="197"/>
+      <c r="U3" s="197"/>
+      <c r="V3" s="197"/>
+      <c r="W3" s="197"/>
+      <c r="X3" s="197"/>
+      <c r="Y3" s="197"/>
+      <c r="Z3" s="198"/>
+      <c r="AA3" s="147"/>
+      <c r="AB3" s="149"/>
+      <c r="AC3" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="147" t="str">
+      <c r="AD3" s="177"/>
+      <c r="AE3" s="177"/>
+      <c r="AF3" s="178"/>
+      <c r="AG3" s="173" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="148"/>
-      <c r="AI3" s="149"/>
+      <c r="AH3" s="174"/>
+      <c r="AI3" s="175"/>
       <c r="AJ3" s="31"/>
       <c r="AK3" s="31"/>
       <c r="AL3" s="31"/>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B5" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="11.25" customHeight="1"/>
-    <row r="7" spans="1:42" ht="11.25" customHeight="1">
-      <c r="C7" s="187" t="s">
+    <row r="6" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="217" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="181" t="s">
+      <c r="D7" s="199" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="183"/>
-      <c r="F7" s="181" t="s">
+      <c r="E7" s="200"/>
+      <c r="F7" s="199" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="182"/>
-      <c r="J7" s="183"/>
-      <c r="K7" s="181" t="s">
+      <c r="G7" s="203"/>
+      <c r="H7" s="203"/>
+      <c r="I7" s="203"/>
+      <c r="J7" s="200"/>
+      <c r="K7" s="199" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="182"/>
-      <c r="M7" s="182"/>
-      <c r="N7" s="182"/>
-      <c r="O7" s="182"/>
-      <c r="P7" s="182"/>
-      <c r="Q7" s="183"/>
-      <c r="R7" s="181" t="s">
+      <c r="L7" s="203"/>
+      <c r="M7" s="203"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="203"/>
+      <c r="Q7" s="200"/>
+      <c r="R7" s="199" t="s">
         <v>75</v>
       </c>
-      <c r="S7" s="183"/>
-      <c r="T7" s="181" t="s">
+      <c r="S7" s="200"/>
+      <c r="T7" s="199" t="s">
         <v>76</v>
       </c>
-      <c r="U7" s="182"/>
-      <c r="V7" s="182"/>
-      <c r="W7" s="182"/>
-      <c r="X7" s="182"/>
-      <c r="Y7" s="183"/>
-      <c r="Z7" s="181" t="s">
+      <c r="U7" s="203"/>
+      <c r="V7" s="203"/>
+      <c r="W7" s="203"/>
+      <c r="X7" s="203"/>
+      <c r="Y7" s="200"/>
+      <c r="Z7" s="199" t="s">
         <v>74</v>
       </c>
-      <c r="AA7" s="182"/>
-      <c r="AB7" s="182"/>
-      <c r="AC7" s="182"/>
-      <c r="AD7" s="182"/>
-      <c r="AE7" s="182"/>
-      <c r="AF7" s="182"/>
-      <c r="AG7" s="183"/>
-      <c r="AH7" s="181" t="s">
+      <c r="AA7" s="203"/>
+      <c r="AB7" s="203"/>
+      <c r="AC7" s="203"/>
+      <c r="AD7" s="203"/>
+      <c r="AE7" s="203"/>
+      <c r="AF7" s="203"/>
+      <c r="AG7" s="200"/>
+      <c r="AH7" s="199" t="s">
         <v>41</v>
       </c>
-      <c r="AI7" s="182"/>
-      <c r="AJ7" s="183"/>
-      <c r="AK7" s="181" t="s">
+      <c r="AI7" s="203"/>
+      <c r="AJ7" s="200"/>
+      <c r="AK7" s="199" t="s">
         <v>42</v>
       </c>
-      <c r="AL7" s="182"/>
-      <c r="AM7" s="182"/>
-      <c r="AN7" s="182"/>
-      <c r="AO7" s="182"/>
-      <c r="AP7" s="183"/>
-    </row>
-    <row r="8" spans="1:42" ht="11.25" customHeight="1">
-      <c r="C8" s="188"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="186"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="185"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="186"/>
-      <c r="K8" s="184"/>
-      <c r="L8" s="185"/>
-      <c r="M8" s="185"/>
-      <c r="N8" s="185"/>
-      <c r="O8" s="185"/>
-      <c r="P8" s="185"/>
-      <c r="Q8" s="186"/>
-      <c r="R8" s="184"/>
-      <c r="S8" s="186"/>
-      <c r="T8" s="184"/>
-      <c r="U8" s="185"/>
-      <c r="V8" s="185"/>
-      <c r="W8" s="185"/>
-      <c r="X8" s="185"/>
-      <c r="Y8" s="186"/>
-      <c r="Z8" s="184"/>
-      <c r="AA8" s="185"/>
-      <c r="AB8" s="185"/>
-      <c r="AC8" s="185"/>
-      <c r="AD8" s="185"/>
-      <c r="AE8" s="185"/>
-      <c r="AF8" s="185"/>
-      <c r="AG8" s="186"/>
-      <c r="AH8" s="184"/>
-      <c r="AI8" s="185"/>
-      <c r="AJ8" s="186"/>
-      <c r="AK8" s="184"/>
-      <c r="AL8" s="185"/>
-      <c r="AM8" s="185"/>
-      <c r="AN8" s="185"/>
-      <c r="AO8" s="185"/>
-      <c r="AP8" s="186"/>
-    </row>
-    <row r="9" spans="1:42" ht="54" customHeight="1">
+      <c r="AL7" s="203"/>
+      <c r="AM7" s="203"/>
+      <c r="AN7" s="203"/>
+      <c r="AO7" s="203"/>
+      <c r="AP7" s="200"/>
+    </row>
+    <row r="8" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="218"/>
+      <c r="D8" s="201"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="201"/>
+      <c r="G8" s="204"/>
+      <c r="H8" s="204"/>
+      <c r="I8" s="204"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="201"/>
+      <c r="L8" s="204"/>
+      <c r="M8" s="204"/>
+      <c r="N8" s="204"/>
+      <c r="O8" s="204"/>
+      <c r="P8" s="204"/>
+      <c r="Q8" s="202"/>
+      <c r="R8" s="201"/>
+      <c r="S8" s="202"/>
+      <c r="T8" s="201"/>
+      <c r="U8" s="204"/>
+      <c r="V8" s="204"/>
+      <c r="W8" s="204"/>
+      <c r="X8" s="204"/>
+      <c r="Y8" s="202"/>
+      <c r="Z8" s="201"/>
+      <c r="AA8" s="204"/>
+      <c r="AB8" s="204"/>
+      <c r="AC8" s="204"/>
+      <c r="AD8" s="204"/>
+      <c r="AE8" s="204"/>
+      <c r="AF8" s="204"/>
+      <c r="AG8" s="202"/>
+      <c r="AH8" s="201"/>
+      <c r="AI8" s="204"/>
+      <c r="AJ8" s="202"/>
+      <c r="AK8" s="201"/>
+      <c r="AL8" s="204"/>
+      <c r="AM8" s="204"/>
+      <c r="AN8" s="204"/>
+      <c r="AO8" s="204"/>
+      <c r="AP8" s="202"/>
+    </row>
+    <row r="9" spans="1:42" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="34">
         <v>1</v>
       </c>
-      <c r="D9" s="192" t="s">
+      <c r="D9" s="214" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="193"/>
-      <c r="F9" s="192" t="s">
+      <c r="E9" s="216"/>
+      <c r="F9" s="214" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="194"/>
-      <c r="H9" s="194"/>
-      <c r="I9" s="194"/>
-      <c r="J9" s="193"/>
-      <c r="K9" s="192" t="s">
+      <c r="G9" s="215"/>
+      <c r="H9" s="215"/>
+      <c r="I9" s="215"/>
+      <c r="J9" s="216"/>
+      <c r="K9" s="214" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="194"/>
-      <c r="M9" s="194"/>
-      <c r="N9" s="194"/>
-      <c r="O9" s="194"/>
-      <c r="P9" s="194"/>
-      <c r="Q9" s="193"/>
-      <c r="R9" s="189" t="s">
+      <c r="L9" s="215"/>
+      <c r="M9" s="215"/>
+      <c r="N9" s="215"/>
+      <c r="O9" s="215"/>
+      <c r="P9" s="215"/>
+      <c r="Q9" s="216"/>
+      <c r="R9" s="181" t="s">
         <v>46</v>
       </c>
-      <c r="S9" s="191"/>
-      <c r="T9" s="189" t="s">
+      <c r="S9" s="182"/>
+      <c r="T9" s="181" t="s">
         <v>44</v>
       </c>
-      <c r="U9" s="190"/>
-      <c r="V9" s="190"/>
-      <c r="W9" s="190"/>
-      <c r="X9" s="190"/>
-      <c r="Y9" s="191"/>
-      <c r="Z9" s="189" t="s">
+      <c r="U9" s="183"/>
+      <c r="V9" s="183"/>
+      <c r="W9" s="183"/>
+      <c r="X9" s="183"/>
+      <c r="Y9" s="182"/>
+      <c r="Z9" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="AA9" s="190"/>
-      <c r="AB9" s="190"/>
-      <c r="AC9" s="190"/>
-      <c r="AD9" s="190"/>
-      <c r="AE9" s="190"/>
-      <c r="AF9" s="190"/>
-      <c r="AG9" s="191"/>
-      <c r="AH9" s="189" t="s">
+      <c r="AA9" s="183"/>
+      <c r="AB9" s="183"/>
+      <c r="AC9" s="183"/>
+      <c r="AD9" s="183"/>
+      <c r="AE9" s="183"/>
+      <c r="AF9" s="183"/>
+      <c r="AG9" s="182"/>
+      <c r="AH9" s="181" t="s">
         <v>48</v>
       </c>
-      <c r="AI9" s="190"/>
-      <c r="AJ9" s="191"/>
-      <c r="AK9" s="189" t="s">
+      <c r="AI9" s="183"/>
+      <c r="AJ9" s="182"/>
+      <c r="AK9" s="181" t="s">
         <v>49</v>
       </c>
-      <c r="AL9" s="190"/>
-      <c r="AM9" s="190"/>
-      <c r="AN9" s="190"/>
-      <c r="AO9" s="190"/>
-      <c r="AP9" s="191"/>
-    </row>
-    <row r="10" spans="1:42" ht="23.85" customHeight="1">
+      <c r="AL9" s="183"/>
+      <c r="AM9" s="183"/>
+      <c r="AN9" s="183"/>
+      <c r="AO9" s="183"/>
+      <c r="AP9" s="182"/>
+    </row>
+    <row r="10" spans="1:42" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="34">
         <v>2</v>
       </c>
-      <c r="D10" s="213"/>
-      <c r="E10" s="214"/>
-      <c r="F10" s="213"/>
-      <c r="G10" s="215"/>
-      <c r="H10" s="215"/>
-      <c r="I10" s="215"/>
-      <c r="J10" s="214"/>
-      <c r="K10" s="213"/>
-      <c r="L10" s="215"/>
-      <c r="M10" s="215"/>
-      <c r="N10" s="215"/>
-      <c r="O10" s="215"/>
-      <c r="P10" s="215"/>
-      <c r="Q10" s="214"/>
-      <c r="R10" s="189" t="s">
+      <c r="D10" s="184"/>
+      <c r="E10" s="185"/>
+      <c r="F10" s="184"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="186"/>
+      <c r="I10" s="186"/>
+      <c r="J10" s="185"/>
+      <c r="K10" s="184"/>
+      <c r="L10" s="186"/>
+      <c r="M10" s="186"/>
+      <c r="N10" s="186"/>
+      <c r="O10" s="186"/>
+      <c r="P10" s="186"/>
+      <c r="Q10" s="185"/>
+      <c r="R10" s="181" t="s">
         <v>50</v>
       </c>
-      <c r="S10" s="191"/>
-      <c r="T10" s="189" t="s">
+      <c r="S10" s="182"/>
+      <c r="T10" s="181" t="s">
         <v>51</v>
       </c>
-      <c r="U10" s="190"/>
-      <c r="V10" s="190"/>
-      <c r="W10" s="190"/>
-      <c r="X10" s="190"/>
-      <c r="Y10" s="191"/>
-      <c r="Z10" s="189" t="s">
+      <c r="U10" s="183"/>
+      <c r="V10" s="183"/>
+      <c r="W10" s="183"/>
+      <c r="X10" s="183"/>
+      <c r="Y10" s="182"/>
+      <c r="Z10" s="181" t="s">
         <v>52</v>
       </c>
-      <c r="AA10" s="190"/>
-      <c r="AB10" s="190"/>
-      <c r="AC10" s="190"/>
-      <c r="AD10" s="190"/>
-      <c r="AE10" s="190"/>
-      <c r="AF10" s="190"/>
-      <c r="AG10" s="191"/>
-      <c r="AH10" s="189" t="s">
+      <c r="AA10" s="183"/>
+      <c r="AB10" s="183"/>
+      <c r="AC10" s="183"/>
+      <c r="AD10" s="183"/>
+      <c r="AE10" s="183"/>
+      <c r="AF10" s="183"/>
+      <c r="AG10" s="182"/>
+      <c r="AH10" s="181" t="s">
         <v>48</v>
       </c>
-      <c r="AI10" s="190"/>
-      <c r="AJ10" s="191"/>
-      <c r="AK10" s="189"/>
-      <c r="AL10" s="190"/>
-      <c r="AM10" s="190"/>
-      <c r="AN10" s="190"/>
-      <c r="AO10" s="190"/>
-      <c r="AP10" s="191"/>
-    </row>
-    <row r="11" spans="1:42" ht="23.85" customHeight="1">
+      <c r="AI10" s="183"/>
+      <c r="AJ10" s="182"/>
+      <c r="AK10" s="181"/>
+      <c r="AL10" s="183"/>
+      <c r="AM10" s="183"/>
+      <c r="AN10" s="183"/>
+      <c r="AO10" s="183"/>
+      <c r="AP10" s="182"/>
+    </row>
+    <row r="11" spans="1:42" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="34">
         <v>3</v>
       </c>
-      <c r="D11" s="213"/>
-      <c r="E11" s="214"/>
-      <c r="F11" s="213"/>
-      <c r="G11" s="215"/>
-      <c r="H11" s="215"/>
-      <c r="I11" s="215"/>
-      <c r="J11" s="214"/>
-      <c r="K11" s="213"/>
-      <c r="L11" s="215"/>
-      <c r="M11" s="215"/>
-      <c r="N11" s="215"/>
-      <c r="O11" s="215"/>
-      <c r="P11" s="215"/>
-      <c r="Q11" s="214"/>
-      <c r="R11" s="189" t="s">
+      <c r="D11" s="184"/>
+      <c r="E11" s="185"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="186"/>
+      <c r="H11" s="186"/>
+      <c r="I11" s="186"/>
+      <c r="J11" s="185"/>
+      <c r="K11" s="184"/>
+      <c r="L11" s="186"/>
+      <c r="M11" s="186"/>
+      <c r="N11" s="186"/>
+      <c r="O11" s="186"/>
+      <c r="P11" s="186"/>
+      <c r="Q11" s="185"/>
+      <c r="R11" s="181" t="s">
         <v>53</v>
       </c>
-      <c r="S11" s="191"/>
-      <c r="T11" s="189" t="s">
+      <c r="S11" s="182"/>
+      <c r="T11" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="U11" s="190"/>
-      <c r="V11" s="190"/>
-      <c r="W11" s="190"/>
-      <c r="X11" s="190"/>
-      <c r="Y11" s="191"/>
-      <c r="Z11" s="189" t="s">
+      <c r="U11" s="183"/>
+      <c r="V11" s="183"/>
+      <c r="W11" s="183"/>
+      <c r="X11" s="183"/>
+      <c r="Y11" s="182"/>
+      <c r="Z11" s="181" t="s">
         <v>55</v>
       </c>
-      <c r="AA11" s="190"/>
-      <c r="AB11" s="190"/>
-      <c r="AC11" s="190"/>
-      <c r="AD11" s="190"/>
-      <c r="AE11" s="190"/>
-      <c r="AF11" s="190"/>
-      <c r="AG11" s="191"/>
-      <c r="AH11" s="189" t="s">
+      <c r="AA11" s="183"/>
+      <c r="AB11" s="183"/>
+      <c r="AC11" s="183"/>
+      <c r="AD11" s="183"/>
+      <c r="AE11" s="183"/>
+      <c r="AF11" s="183"/>
+      <c r="AG11" s="182"/>
+      <c r="AH11" s="181" t="s">
         <v>48</v>
       </c>
-      <c r="AI11" s="190"/>
-      <c r="AJ11" s="191"/>
-      <c r="AK11" s="189"/>
-      <c r="AL11" s="190"/>
-      <c r="AM11" s="190"/>
-      <c r="AN11" s="190"/>
-      <c r="AO11" s="190"/>
-      <c r="AP11" s="191"/>
-    </row>
-    <row r="12" spans="1:42" ht="35.85" customHeight="1">
+      <c r="AI11" s="183"/>
+      <c r="AJ11" s="182"/>
+      <c r="AK11" s="181"/>
+      <c r="AL11" s="183"/>
+      <c r="AM11" s="183"/>
+      <c r="AN11" s="183"/>
+      <c r="AO11" s="183"/>
+      <c r="AP11" s="182"/>
+    </row>
+    <row r="12" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="34">
         <v>4</v>
       </c>
-      <c r="D12" s="216"/>
-      <c r="E12" s="217"/>
-      <c r="F12" s="216"/>
-      <c r="G12" s="218"/>
-      <c r="H12" s="218"/>
-      <c r="I12" s="218"/>
-      <c r="J12" s="217"/>
-      <c r="K12" s="216"/>
-      <c r="L12" s="218"/>
-      <c r="M12" s="218"/>
-      <c r="N12" s="218"/>
-      <c r="O12" s="218"/>
-      <c r="P12" s="218"/>
-      <c r="Q12" s="217"/>
-      <c r="R12" s="189" t="s">
+      <c r="D12" s="187"/>
+      <c r="E12" s="188"/>
+      <c r="F12" s="187"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="189"/>
+      <c r="J12" s="188"/>
+      <c r="K12" s="187"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="189"/>
+      <c r="N12" s="189"/>
+      <c r="O12" s="189"/>
+      <c r="P12" s="189"/>
+      <c r="Q12" s="188"/>
+      <c r="R12" s="181" t="s">
         <v>56</v>
       </c>
-      <c r="S12" s="191"/>
-      <c r="T12" s="189" t="s">
+      <c r="S12" s="182"/>
+      <c r="T12" s="181" t="s">
         <v>57</v>
       </c>
-      <c r="U12" s="190"/>
-      <c r="V12" s="190"/>
-      <c r="W12" s="190"/>
-      <c r="X12" s="190"/>
-      <c r="Y12" s="191"/>
-      <c r="Z12" s="189" t="s">
+      <c r="U12" s="183"/>
+      <c r="V12" s="183"/>
+      <c r="W12" s="183"/>
+      <c r="X12" s="183"/>
+      <c r="Y12" s="182"/>
+      <c r="Z12" s="181" t="s">
         <v>58</v>
       </c>
-      <c r="AA12" s="190"/>
-      <c r="AB12" s="190"/>
-      <c r="AC12" s="190"/>
-      <c r="AD12" s="190"/>
-      <c r="AE12" s="190"/>
-      <c r="AF12" s="190"/>
-      <c r="AG12" s="191"/>
-      <c r="AH12" s="189" t="s">
+      <c r="AA12" s="183"/>
+      <c r="AB12" s="183"/>
+      <c r="AC12" s="183"/>
+      <c r="AD12" s="183"/>
+      <c r="AE12" s="183"/>
+      <c r="AF12" s="183"/>
+      <c r="AG12" s="182"/>
+      <c r="AH12" s="181" t="s">
         <v>48</v>
       </c>
-      <c r="AI12" s="190"/>
-      <c r="AJ12" s="191"/>
-      <c r="AK12" s="189"/>
-      <c r="AL12" s="190"/>
-      <c r="AM12" s="190"/>
-      <c r="AN12" s="190"/>
-      <c r="AO12" s="190"/>
-      <c r="AP12" s="191"/>
-    </row>
-    <row r="13" spans="1:42" ht="35.85" customHeight="1">
+      <c r="AI12" s="183"/>
+      <c r="AJ12" s="182"/>
+      <c r="AK12" s="181"/>
+      <c r="AL12" s="183"/>
+      <c r="AM12" s="183"/>
+      <c r="AN12" s="183"/>
+      <c r="AO12" s="183"/>
+      <c r="AP12" s="182"/>
+    </row>
+    <row r="13" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="34">
         <v>5</v>
       </c>
-      <c r="D13" s="192" t="s">
+      <c r="D13" s="214" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="193"/>
-      <c r="F13" s="192" t="s">
+      <c r="E13" s="216"/>
+      <c r="F13" s="214" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="194"/>
-      <c r="H13" s="194"/>
-      <c r="I13" s="194"/>
-      <c r="J13" s="193"/>
-      <c r="K13" s="192" t="s">
+      <c r="G13" s="215"/>
+      <c r="H13" s="215"/>
+      <c r="I13" s="215"/>
+      <c r="J13" s="216"/>
+      <c r="K13" s="214" t="s">
         <v>61</v>
       </c>
-      <c r="L13" s="194"/>
-      <c r="M13" s="194"/>
-      <c r="N13" s="194"/>
-      <c r="O13" s="194"/>
-      <c r="P13" s="194"/>
-      <c r="Q13" s="193"/>
-      <c r="R13" s="189" t="s">
+      <c r="L13" s="215"/>
+      <c r="M13" s="215"/>
+      <c r="N13" s="215"/>
+      <c r="O13" s="215"/>
+      <c r="P13" s="215"/>
+      <c r="Q13" s="216"/>
+      <c r="R13" s="181" t="s">
         <v>62</v>
       </c>
-      <c r="S13" s="191"/>
-      <c r="T13" s="189" t="s">
+      <c r="S13" s="182"/>
+      <c r="T13" s="181" t="s">
         <v>63</v>
       </c>
-      <c r="U13" s="190"/>
-      <c r="V13" s="190"/>
-      <c r="W13" s="190"/>
-      <c r="X13" s="190"/>
-      <c r="Y13" s="191"/>
-      <c r="Z13" s="189" t="s">
+      <c r="U13" s="183"/>
+      <c r="V13" s="183"/>
+      <c r="W13" s="183"/>
+      <c r="X13" s="183"/>
+      <c r="Y13" s="182"/>
+      <c r="Z13" s="181" t="s">
         <v>64</v>
       </c>
-      <c r="AA13" s="190"/>
-      <c r="AB13" s="190"/>
-      <c r="AC13" s="190"/>
-      <c r="AD13" s="190"/>
-      <c r="AE13" s="190"/>
-      <c r="AF13" s="190"/>
-      <c r="AG13" s="191"/>
-      <c r="AH13" s="189" t="s">
+      <c r="AA13" s="183"/>
+      <c r="AB13" s="183"/>
+      <c r="AC13" s="183"/>
+      <c r="AD13" s="183"/>
+      <c r="AE13" s="183"/>
+      <c r="AF13" s="183"/>
+      <c r="AG13" s="182"/>
+      <c r="AH13" s="181" t="s">
         <v>48</v>
       </c>
-      <c r="AI13" s="190"/>
-      <c r="AJ13" s="191"/>
-      <c r="AK13" s="189" t="s">
+      <c r="AI13" s="183"/>
+      <c r="AJ13" s="182"/>
+      <c r="AK13" s="181" t="s">
         <v>65</v>
       </c>
-      <c r="AL13" s="190"/>
-      <c r="AM13" s="190"/>
-      <c r="AN13" s="190"/>
-      <c r="AO13" s="190"/>
-      <c r="AP13" s="191"/>
-    </row>
-    <row r="14" spans="1:42" ht="35.85" customHeight="1">
+      <c r="AL13" s="183"/>
+      <c r="AM13" s="183"/>
+      <c r="AN13" s="183"/>
+      <c r="AO13" s="183"/>
+      <c r="AP13" s="182"/>
+    </row>
+    <row r="14" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="34">
         <v>6</v>
       </c>
-      <c r="D14" s="189" t="s">
+      <c r="D14" s="181" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="191"/>
-      <c r="F14" s="189" t="s">
+      <c r="E14" s="182"/>
+      <c r="F14" s="181" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="190"/>
-      <c r="H14" s="190"/>
-      <c r="I14" s="190"/>
-      <c r="J14" s="191"/>
-      <c r="K14" s="189" t="s">
+      <c r="G14" s="183"/>
+      <c r="H14" s="183"/>
+      <c r="I14" s="183"/>
+      <c r="J14" s="182"/>
+      <c r="K14" s="181" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="190"/>
-      <c r="M14" s="190"/>
-      <c r="N14" s="190"/>
-      <c r="O14" s="190"/>
-      <c r="P14" s="190"/>
-      <c r="Q14" s="191"/>
-      <c r="R14" s="189" t="s">
+      <c r="L14" s="183"/>
+      <c r="M14" s="183"/>
+      <c r="N14" s="183"/>
+      <c r="O14" s="183"/>
+      <c r="P14" s="183"/>
+      <c r="Q14" s="182"/>
+      <c r="R14" s="181" t="s">
         <v>69</v>
       </c>
-      <c r="S14" s="191"/>
-      <c r="T14" s="189" t="s">
+      <c r="S14" s="182"/>
+      <c r="T14" s="181" t="s">
         <v>70</v>
       </c>
-      <c r="U14" s="190"/>
-      <c r="V14" s="190"/>
-      <c r="W14" s="190"/>
-      <c r="X14" s="190"/>
-      <c r="Y14" s="191"/>
-      <c r="Z14" s="189" t="s">
+      <c r="U14" s="183"/>
+      <c r="V14" s="183"/>
+      <c r="W14" s="183"/>
+      <c r="X14" s="183"/>
+      <c r="Y14" s="182"/>
+      <c r="Z14" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="AA14" s="190"/>
-      <c r="AB14" s="190"/>
-      <c r="AC14" s="190"/>
-      <c r="AD14" s="190"/>
-      <c r="AE14" s="190"/>
-      <c r="AF14" s="190"/>
-      <c r="AG14" s="191"/>
-      <c r="AH14" s="189" t="s">
+      <c r="AA14" s="183"/>
+      <c r="AB14" s="183"/>
+      <c r="AC14" s="183"/>
+      <c r="AD14" s="183"/>
+      <c r="AE14" s="183"/>
+      <c r="AF14" s="183"/>
+      <c r="AG14" s="182"/>
+      <c r="AH14" s="181" t="s">
         <v>72</v>
       </c>
-      <c r="AI14" s="190"/>
-      <c r="AJ14" s="191"/>
-      <c r="AK14" s="189"/>
-      <c r="AL14" s="190"/>
-      <c r="AM14" s="190"/>
-      <c r="AN14" s="190"/>
-      <c r="AO14" s="190"/>
-      <c r="AP14" s="191"/>
-    </row>
-    <row r="15" spans="1:42">
+      <c r="AI14" s="183"/>
+      <c r="AJ14" s="182"/>
+      <c r="AK14" s="181"/>
+      <c r="AL14" s="183"/>
+      <c r="AM14" s="183"/>
+      <c r="AN14" s="183"/>
+      <c r="AO14" s="183"/>
+      <c r="AP14" s="182"/>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15" s="35"/>
       <c r="B15" s="36"/>
       <c r="C15" s="37"/>
@@ -6534,7 +6453,7 @@
       <c r="AO15" s="35"/>
       <c r="AP15" s="35"/>
     </row>
-    <row r="16" spans="1:42">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
@@ -6575,7 +6494,7 @@
       <c r="AM16" s="38"/>
       <c r="AN16" s="38"/>
     </row>
-    <row r="17" spans="2:40">
+    <row r="17" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B17" s="38"/>
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
@@ -6616,7 +6535,7 @@
       <c r="AM17" s="38"/>
       <c r="AN17" s="38"/>
     </row>
-    <row r="18" spans="2:40">
+    <row r="18" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B18" s="38"/>
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
@@ -6657,7 +6576,7 @@
       <c r="AM18" s="38"/>
       <c r="AN18" s="38"/>
     </row>
-    <row r="19" spans="2:40">
+    <row r="19" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
@@ -6698,7 +6617,7 @@
       <c r="AM19" s="38"/>
       <c r="AN19" s="38"/>
     </row>
-    <row r="20" spans="2:40">
+    <row r="20" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
@@ -6739,7 +6658,7 @@
       <c r="AM20" s="38"/>
       <c r="AN20" s="38"/>
     </row>
-    <row r="21" spans="2:40">
+    <row r="21" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
@@ -6780,7 +6699,7 @@
       <c r="AM21" s="38"/>
       <c r="AN21" s="38"/>
     </row>
-    <row r="22" spans="2:40">
+    <row r="22" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
@@ -6821,7 +6740,7 @@
       <c r="AM22" s="38"/>
       <c r="AN22" s="38"/>
     </row>
-    <row r="23" spans="2:40">
+    <row r="23" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
@@ -6862,7 +6781,7 @@
       <c r="AM23" s="38"/>
       <c r="AN23" s="38"/>
     </row>
-    <row r="24" spans="2:40">
+    <row r="24" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B24" s="38"/>
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
@@ -6903,7 +6822,7 @@
       <c r="AM24" s="38"/>
       <c r="AN24" s="38"/>
     </row>
-    <row r="25" spans="2:40">
+    <row r="25" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B25" s="38"/>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
@@ -6944,7 +6863,7 @@
       <c r="AM25" s="38"/>
       <c r="AN25" s="38"/>
     </row>
-    <row r="26" spans="2:40">
+    <row r="26" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B26" s="38"/>
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
@@ -6985,7 +6904,7 @@
       <c r="AM26" s="38"/>
       <c r="AN26" s="38"/>
     </row>
-    <row r="27" spans="2:40">
+    <row r="27" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B27" s="38"/>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
@@ -7026,7 +6945,7 @@
       <c r="AM27" s="38"/>
       <c r="AN27" s="38"/>
     </row>
-    <row r="28" spans="2:40">
+    <row r="28" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B28" s="38"/>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
@@ -7069,11 +6988,59 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="K7:Q8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="Z13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AK13:AP13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:Y13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="AK7:AP8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="AK9:AP9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="Z10:AG10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:Y9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:J8"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="Z9:AG9"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="R7:S8"/>
+    <mergeCell ref="T7:Y8"/>
+    <mergeCell ref="Z7:AG8"/>
+    <mergeCell ref="AH7:AJ8"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="AK10:AP10"/>
+    <mergeCell ref="AK12:AP12"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:Y11"/>
+    <mergeCell ref="Z11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AP11"/>
     <mergeCell ref="AK14:AP14"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:J10"/>
@@ -7090,59 +7057,11 @@
     <mergeCell ref="AH12:AJ12"/>
     <mergeCell ref="Z14:AG14"/>
     <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="AK10:AP10"/>
-    <mergeCell ref="AK12:AP12"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:Y11"/>
-    <mergeCell ref="Z11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AP11"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="Z9:AG9"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="R7:S8"/>
-    <mergeCell ref="T7:Y8"/>
-    <mergeCell ref="Z7:AG8"/>
-    <mergeCell ref="AH7:AJ8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:Y9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:J8"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="K7:Q8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="Z13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AK13:AP13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:Y13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="AK7:AP8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="AK9:AP9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:Y10"/>
-    <mergeCell ref="Z10:AG10"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -7150,6 +7069,5 @@
   <headerFooter>
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>